--- a/excludeddata_14march.xlsx
+++ b/excludeddata_14march.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1418B367-8871-5544-9EC8-0C76CD29F04E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A7E17-95B2-6543-AA29-7C27556E553A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29680" yWindow="-6800" windowWidth="23120" windowHeight="15460" xr2:uid="{1D94ADF6-B785-974B-BAAC-3A422A96ECD2}"/>
+    <workbookView xWindow="29680" yWindow="-6800" windowWidth="23120" windowHeight="15460" activeTab="1" xr2:uid="{1D94ADF6-B785-974B-BAAC-3A422A96ECD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="84">
   <si>
     <t>kern_2015phys</t>
   </si>
@@ -200,6 +201,84 @@
   <si>
     <t xml:space="preserve">figure 1d </t>
   </si>
+  <si>
+    <t>piccau2017</t>
+  </si>
+  <si>
+    <t>figure 1</t>
+  </si>
+  <si>
+    <t>germination</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>Clematis</t>
+  </si>
+  <si>
+    <t>vitalba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irradiance per day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 hours </t>
+  </si>
+  <si>
+    <t>duncan2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phage density </t>
+  </si>
+  <si>
+    <t>ml^-1</t>
+  </si>
+  <si>
+    <t>lytic phage</t>
+  </si>
+  <si>
+    <t>SBWΦ2.</t>
+  </si>
+  <si>
+    <t>direction of temp change</t>
+  </si>
+  <si>
+    <t>cold to hot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hot to cold </t>
+  </si>
+  <si>
+    <t>saxon2017</t>
+  </si>
+  <si>
+    <t>wing centroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drosophila </t>
+  </si>
+  <si>
+    <t>birchii</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>different means for constant and fluctuating treatments</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>exposed to different temperatures from the experiment assay for response</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple time points </t>
+  </si>
 </sst>
 </file>
 
@@ -214,12 +293,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,9 +325,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,650 +644,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1019FBED-5882-294F-8C12-AE6AC4298203}">
-  <dimension ref="A1:AJ108"/>
+  <dimension ref="A1:AJ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:XFD108"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>24</v>
-      </c>
-      <c r="J1">
+    <row r="1" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3">
         <v>20</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>30</v>
       </c>
-      <c r="L1">
-        <f>K1-J1</f>
+      <c r="L1" s="3">
+        <f t="shared" ref="L1:L32" si="0">K1-J1</f>
         <v>10</v>
       </c>
-      <c r="M1">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="M1" s="3">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <v>39.721402930000004</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <v>40.514995859999999</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3">
         <v>7.5117371000000002E-2</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="3">
         <v>0.16901408500000001</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <v>192</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <v>192</v>
       </c>
-      <c r="V1">
-        <v>1</v>
-      </c>
-      <c r="W1">
-        <v>0</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="V1" s="3">
+        <v>1</v>
+      </c>
+      <c r="W1" s="3">
+        <v>0</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z1">
-        <v>1</v>
-      </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="Z1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>24</v>
-      </c>
-      <c r="J2">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3">
         <v>20</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>30</v>
       </c>
-      <c r="L2">
-        <f>K2-J2</f>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M2">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2" s="3">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>40.488262910000003</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>41.57722708</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>0.112676056</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>9.3896714000000006E-2</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="3">
         <v>163</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="3">
         <v>163</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>2</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>30</v>
       </c>
-      <c r="L3">
-        <f>K3-J3</f>
+      <c r="L3" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M3">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="M3" s="3">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>41.73584906</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="3">
         <v>42.90566038</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>0.15094339600000001</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="3">
         <v>0.132075472</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="3">
         <v>245</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="3">
         <v>245</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>2</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
         <v>18</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>18</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>28</v>
       </c>
-      <c r="L4">
-        <f>K4-J4</f>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M4">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="M4" s="3">
+        <v>24</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>39.8815144</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="3">
         <v>40.29342261</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>0.13501144000000001</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="3">
         <v>6.8649885999999993E-2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="3">
         <v>12</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="3">
         <v>12</v>
       </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>2</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
         <v>18</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>18</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>28</v>
       </c>
-      <c r="L5">
-        <f>K5-J5</f>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="M5">
-        <v>24</v>
-      </c>
-      <c r="N5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="M5" s="3">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>39.947047900000001</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
         <v>40.432164829999998</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>0.13043478</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
         <v>0.11442537999999999</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="3">
         <v>12</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="3">
         <v>12</v>
       </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>2</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>24</v>
-      </c>
-      <c r="J6">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3">
         <v>18</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>32</v>
       </c>
-      <c r="L6">
-        <f>K6-J6</f>
+      <c r="L6" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M6">
-        <v>24</v>
-      </c>
-      <c r="N6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="M6" s="3">
+        <v>24</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>42.15384615</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="3">
         <v>42.335664340000001</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>0.125874126</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="3">
         <v>0.12937062899999999</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="3">
         <v>8</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="3">
         <v>8</v>
       </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>2</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3">
         <v>18</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>32</v>
       </c>
-      <c r="L7">
-        <f>K7-J7</f>
+      <c r="L7" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>2</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="M7" s="3">
+        <v>24</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>41.398601399999997</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="3">
         <v>43.006993010000002</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>0.12237762200000001</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="3">
         <v>0.19580419600000001</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="3">
         <v>8</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="3">
         <v>8</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7" t="s">
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>2</v>
-      </c>
-      <c r="AC7" t="s">
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AJ7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1230,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="L8">
-        <f>K8-J8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M8">
@@ -1329,7 +1422,7 @@
         <v>31</v>
       </c>
       <c r="L9">
-        <f>K9-J9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M9">
@@ -1428,7 +1521,7 @@
         <v>31</v>
       </c>
       <c r="L10">
-        <f>K10-J10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M10">
@@ -1527,7 +1620,7 @@
         <v>31</v>
       </c>
       <c r="L11">
-        <f>K11-J11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M11">
@@ -1626,7 +1719,7 @@
         <v>31</v>
       </c>
       <c r="L12">
-        <f>K12-J12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M12">
@@ -1719,7 +1812,7 @@
         <v>34</v>
       </c>
       <c r="L13">
-        <f>K13-J13</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M13">
@@ -1818,7 +1911,7 @@
         <v>34</v>
       </c>
       <c r="L14">
-        <f>K14-J14</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M14">
@@ -1917,7 +2010,7 @@
         <v>34</v>
       </c>
       <c r="L15">
-        <f>K15-J15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M15">
@@ -2016,7 +2109,7 @@
         <v>34</v>
       </c>
       <c r="L16">
-        <f>K16-J16</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M16">
@@ -2115,7 +2208,7 @@
         <v>34</v>
       </c>
       <c r="L17">
-        <f>K17-J17</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M17">
@@ -2208,7 +2301,7 @@
         <v>31</v>
       </c>
       <c r="L18">
-        <f>K18-J18</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M18">
@@ -2307,7 +2400,7 @@
         <v>31</v>
       </c>
       <c r="L19">
-        <f>K19-J19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M19">
@@ -2406,7 +2499,7 @@
         <v>31</v>
       </c>
       <c r="L20">
-        <f>K20-J20</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M20">
@@ -2505,7 +2598,7 @@
         <v>31</v>
       </c>
       <c r="L21">
-        <f>K21-J21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M21">
@@ -2604,7 +2697,7 @@
         <v>31</v>
       </c>
       <c r="L22">
-        <f>K22-J22</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M22">
@@ -2697,7 +2790,7 @@
         <v>34</v>
       </c>
       <c r="L23">
-        <f>K23-J23</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M23">
@@ -2796,7 +2889,7 @@
         <v>34</v>
       </c>
       <c r="L24">
-        <f>K24-J24</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M24">
@@ -2895,7 +2988,7 @@
         <v>34</v>
       </c>
       <c r="L25">
-        <f>K25-J25</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M25">
@@ -2994,7 +3087,7 @@
         <v>34</v>
       </c>
       <c r="L26">
-        <f>K26-J26</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M26">
@@ -3093,7 +3186,7 @@
         <v>34</v>
       </c>
       <c r="L27">
-        <f>K27-J27</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M27">
@@ -3186,7 +3279,7 @@
         <v>32</v>
       </c>
       <c r="L28">
-        <f>K28-J28</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M28">
@@ -3282,7 +3375,7 @@
         <v>32</v>
       </c>
       <c r="L29">
-        <f>K29-J29</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M29">
@@ -3381,7 +3474,7 @@
         <v>32</v>
       </c>
       <c r="L30">
-        <f>K30-J30</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M30">
@@ -3480,7 +3573,7 @@
         <v>32</v>
       </c>
       <c r="L31">
-        <f>K31-J31</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M31">
@@ -3579,7 +3672,7 @@
         <v>32</v>
       </c>
       <c r="L32">
-        <f>K32-J32</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M32">
@@ -3678,7 +3771,7 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <f>K33-J33</f>
+        <f t="shared" ref="L33:L64" si="1">K33-J33</f>
         <v>15</v>
       </c>
       <c r="M33">
@@ -3777,7 +3870,7 @@
         <v>32</v>
       </c>
       <c r="L34">
-        <f>K34-J34</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M34">
@@ -3876,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="L35">
-        <f>K35-J35</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M35">
@@ -3975,7 +4068,7 @@
         <v>32</v>
       </c>
       <c r="L36">
-        <f>K36-J36</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M36">
@@ -4074,7 +4167,7 @@
         <v>32</v>
       </c>
       <c r="L37">
-        <f>K37-J37</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M37">
@@ -4173,7 +4266,7 @@
         <v>32</v>
       </c>
       <c r="L38">
-        <f>K38-J38</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M38">
@@ -4272,7 +4365,7 @@
         <v>32</v>
       </c>
       <c r="L39">
-        <f>K39-J39</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M39">
@@ -4371,7 +4464,7 @@
         <v>32</v>
       </c>
       <c r="L40">
-        <f>K40-J40</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M40">
@@ -4467,7 +4560,7 @@
         <v>32</v>
       </c>
       <c r="L41">
-        <f>K41-J41</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M41">
@@ -4560,7 +4653,7 @@
         <v>32</v>
       </c>
       <c r="L42">
-        <f>K42-J42</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M42">
@@ -4653,7 +4746,7 @@
         <v>32</v>
       </c>
       <c r="L43">
-        <f>K43-J43</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M43">
@@ -4746,7 +4839,7 @@
         <v>32</v>
       </c>
       <c r="L44">
-        <f>K44-J44</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M44">
@@ -4839,7 +4932,7 @@
         <v>32</v>
       </c>
       <c r="L45">
-        <f>K45-J45</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M45">
@@ -4935,7 +5028,7 @@
         <v>32</v>
       </c>
       <c r="L46">
-        <f>K46-J46</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M46">
@@ -5034,7 +5127,7 @@
         <v>32</v>
       </c>
       <c r="L47">
-        <f>K47-J47</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M47">
@@ -5133,7 +5226,7 @@
         <v>32</v>
       </c>
       <c r="L48">
-        <f>K48-J48</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M48">
@@ -5232,7 +5325,7 @@
         <v>32</v>
       </c>
       <c r="L49">
-        <f>K49-J49</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M49">
@@ -5331,7 +5424,7 @@
         <v>32</v>
       </c>
       <c r="L50">
-        <f>K50-J50</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M50">
@@ -5430,7 +5523,7 @@
         <v>32</v>
       </c>
       <c r="L51">
-        <f>K51-J51</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M51">
@@ -5529,7 +5622,7 @@
         <v>32</v>
       </c>
       <c r="L52">
-        <f>K52-J52</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M52">
@@ -5628,7 +5721,7 @@
         <v>32</v>
       </c>
       <c r="L53">
-        <f>K53-J53</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M53">
@@ -5727,7 +5820,7 @@
         <v>32</v>
       </c>
       <c r="L54">
-        <f>K54-J54</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M54">
@@ -5820,7 +5913,7 @@
         <v>32</v>
       </c>
       <c r="L55">
-        <f>K55-J55</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M55">
@@ -5913,7 +6006,7 @@
         <v>32</v>
       </c>
       <c r="L56">
-        <f>K56-J56</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M56">
@@ -6009,7 +6102,7 @@
         <v>32</v>
       </c>
       <c r="L57">
-        <f>K57-J57</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M57">
@@ -6108,7 +6201,7 @@
         <v>32</v>
       </c>
       <c r="L58">
-        <f>K58-J58</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M58">
@@ -6207,7 +6300,7 @@
         <v>32</v>
       </c>
       <c r="L59">
-        <f>K59-J59</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M59">
@@ -6306,7 +6399,7 @@
         <v>32</v>
       </c>
       <c r="L60">
-        <f>K60-J60</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M60">
@@ -6405,7 +6498,7 @@
         <v>32</v>
       </c>
       <c r="L61">
-        <f>K61-J61</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M61">
@@ -6504,7 +6597,7 @@
         <v>32</v>
       </c>
       <c r="L62">
-        <f>K62-J62</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M62">
@@ -6603,7 +6696,7 @@
         <v>32</v>
       </c>
       <c r="L63">
-        <f>K63-J63</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M63">
@@ -6702,7 +6795,7 @@
         <v>32</v>
       </c>
       <c r="L64">
-        <f>K64-J64</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M64">
@@ -6801,7 +6894,7 @@
         <v>32</v>
       </c>
       <c r="L65">
-        <f>K65-J65</f>
+        <f t="shared" ref="L65:L96" si="2">K65-J65</f>
         <v>15</v>
       </c>
       <c r="M65">
@@ -6900,7 +6993,7 @@
         <v>32</v>
       </c>
       <c r="L66">
-        <f>K66-J66</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M66">
@@ -6999,7 +7092,7 @@
         <v>32</v>
       </c>
       <c r="L67">
-        <f>K67-J67</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M67">
@@ -7092,7 +7185,7 @@
         <v>32</v>
       </c>
       <c r="L68">
-        <f>K68-J68</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M68">
@@ -7185,7 +7278,7 @@
         <v>32</v>
       </c>
       <c r="L69">
-        <f>K69-J69</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M69">
@@ -7278,7 +7371,7 @@
         <v>32</v>
       </c>
       <c r="L70">
-        <f>K70-J70</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M70">
@@ -7371,7 +7464,7 @@
         <v>32</v>
       </c>
       <c r="L71">
-        <f>K71-J71</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M71">
@@ -7464,7 +7557,7 @@
         <v>32</v>
       </c>
       <c r="L72">
-        <f>K72-J72</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M72">
@@ -7560,7 +7653,7 @@
         <v>32</v>
       </c>
       <c r="L73">
-        <f>K73-J73</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M73">
@@ -7659,7 +7752,7 @@
         <v>32</v>
       </c>
       <c r="L74">
-        <f>K74-J74</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M74">
@@ -7758,7 +7851,7 @@
         <v>32</v>
       </c>
       <c r="L75">
-        <f>K75-J75</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M75">
@@ -7857,7 +7950,7 @@
         <v>32</v>
       </c>
       <c r="L76">
-        <f>K76-J76</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M76">
@@ -7956,7 +8049,7 @@
         <v>32</v>
       </c>
       <c r="L77">
-        <f>K77-J77</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M77">
@@ -8055,7 +8148,7 @@
         <v>32</v>
       </c>
       <c r="L78">
-        <f>K78-J78</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M78">
@@ -8154,7 +8247,7 @@
         <v>32</v>
       </c>
       <c r="L79">
-        <f>K79-J79</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="M79">
@@ -8256,7 +8349,7 @@
         <v>14</v>
       </c>
       <c r="L80">
-        <f>K80-J80</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M80">
@@ -8355,7 +8448,7 @@
         <v>14</v>
       </c>
       <c r="L81">
-        <f>K81-J81</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M81">
@@ -8451,7 +8544,7 @@
         <v>23</v>
       </c>
       <c r="L82">
-        <f>K82-J82</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M82">
@@ -8553,7 +8646,7 @@
         <v>23</v>
       </c>
       <c r="L83">
-        <f>K83-J83</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M83">
@@ -8649,7 +8742,7 @@
         <v>30</v>
       </c>
       <c r="L84">
-        <f>K84-J84</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M84">
@@ -8748,7 +8841,7 @@
         <v>30</v>
       </c>
       <c r="L85">
-        <f>K85-J85</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M85">
@@ -8847,7 +8940,7 @@
         <v>14</v>
       </c>
       <c r="L86">
-        <f>K86-J86</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M86">
@@ -8946,7 +9039,7 @@
         <v>14</v>
       </c>
       <c r="L87">
-        <f>K87-J87</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M87">
@@ -9042,7 +9135,7 @@
         <v>23</v>
       </c>
       <c r="L88">
-        <f>K88-J88</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M88">
@@ -9144,7 +9237,7 @@
         <v>23</v>
       </c>
       <c r="L89">
-        <f>K89-J89</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M89">
@@ -9240,7 +9333,7 @@
         <v>30</v>
       </c>
       <c r="L90">
-        <f>K90-J90</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M90">
@@ -9342,7 +9435,7 @@
         <v>30</v>
       </c>
       <c r="L91">
-        <f>K91-J91</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M91">
@@ -9438,7 +9531,7 @@
         <v>40</v>
       </c>
       <c r="L92">
-        <f>K92-J92</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M92">
@@ -9534,7 +9627,7 @@
         <v>14</v>
       </c>
       <c r="L93">
-        <f>K93-J93</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M93">
@@ -9633,7 +9726,7 @@
         <v>14</v>
       </c>
       <c r="L94">
-        <f>K94-J94</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M94">
@@ -9732,7 +9825,7 @@
         <v>23</v>
       </c>
       <c r="L95">
-        <f>K95-J95</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M95">
@@ -9834,7 +9927,7 @@
         <v>23</v>
       </c>
       <c r="L96">
-        <f>K96-J96</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M96">
@@ -9930,7 +10023,7 @@
         <v>30</v>
       </c>
       <c r="L97">
-        <f>K97-J97</f>
+        <f t="shared" ref="L97:L108" si="3">K97-J97</f>
         <v>14</v>
       </c>
       <c r="M97">
@@ -10032,7 +10125,7 @@
         <v>30</v>
       </c>
       <c r="L98">
-        <f>K98-J98</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M98">
@@ -10128,7 +10221,7 @@
         <v>40</v>
       </c>
       <c r="L99">
-        <f>K99-J99</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M99">
@@ -10230,7 +10323,7 @@
         <v>40</v>
       </c>
       <c r="L100">
-        <f>K100-J100</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M100">
@@ -10326,7 +10419,7 @@
         <v>14</v>
       </c>
       <c r="L101">
-        <f>K101-J101</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M101">
@@ -10429,7 +10522,7 @@
         <v>14</v>
       </c>
       <c r="L102">
-        <f>K102-J102</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M102">
@@ -10526,7 +10619,7 @@
         <v>23</v>
       </c>
       <c r="L103">
-        <f>K103-J103</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M103">
@@ -10626,7 +10719,7 @@
         <v>23</v>
       </c>
       <c r="L104">
-        <f>K104-J104</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M104">
@@ -10723,7 +10816,7 @@
         <v>30</v>
       </c>
       <c r="L105">
-        <f>K105-J105</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M105">
@@ -10823,7 +10916,7 @@
         <v>30</v>
       </c>
       <c r="L106">
-        <f>K106-J106</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M106">
@@ -10920,7 +11013,7 @@
         <v>40</v>
       </c>
       <c r="L107">
-        <f>K107-J107</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M107">
@@ -11020,7 +11113,7 @@
         <v>40</v>
       </c>
       <c r="L108">
-        <f>K108-J108</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M108">
@@ -11080,6 +11173,588 @@
       </c>
       <c r="AJ108" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>1</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1</v>
+      </c>
+      <c r="I109" s="2">
+        <v>10</v>
+      </c>
+      <c r="J109" s="2">
+        <v>10</v>
+      </c>
+      <c r="K109" s="2">
+        <v>25</v>
+      </c>
+      <c r="L109" s="2">
+        <f>K109-J109</f>
+        <v>15</v>
+      </c>
+      <c r="M109" s="2">
+        <v>24</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P109" s="2">
+        <v>0.81037276999999996</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>87.520259300000006</v>
+      </c>
+      <c r="R109" s="2">
+        <v>1.6207455399999999</v>
+      </c>
+      <c r="S109" s="2">
+        <v>7.3743922199999998</v>
+      </c>
+      <c r="T109" s="2">
+        <v>120</v>
+      </c>
+      <c r="U109" s="2">
+        <v>120</v>
+      </c>
+      <c r="V109" s="2">
+        <v>1</v>
+      </c>
+      <c r="W109" s="2">
+        <v>1</v>
+      </c>
+      <c r="X109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y109" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ109" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <v>4</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>32</v>
+      </c>
+      <c r="J110" s="2">
+        <v>28</v>
+      </c>
+      <c r="K110" s="2">
+        <v>32</v>
+      </c>
+      <c r="L110" s="2">
+        <f>K110-J110</f>
+        <v>4</v>
+      </c>
+      <c r="M110" s="2">
+        <v>48</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P110" s="2">
+        <v>-2.3909825023451015E-2</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>-0.84509945900000005</v>
+      </c>
+      <c r="R110" s="2">
+        <v>0.11820634261581375</v>
+      </c>
+      <c r="S110" s="2">
+        <v>0.119565036</v>
+      </c>
+      <c r="V110" s="2">
+        <v>1</v>
+      </c>
+      <c r="W110" s="2">
+        <v>0</v>
+      </c>
+      <c r="X110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y110" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ110" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>1</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="2">
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>4</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>32</v>
+      </c>
+      <c r="J111" s="2">
+        <v>28</v>
+      </c>
+      <c r="K111" s="2">
+        <v>32</v>
+      </c>
+      <c r="L111" s="2">
+        <f>K111-J111</f>
+        <v>4</v>
+      </c>
+      <c r="M111" s="2">
+        <v>48</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P111" s="2">
+        <v>-2.3909825023451015E-2</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>2.4135967100000002</v>
+      </c>
+      <c r="R111" s="2">
+        <v>0.11820634261581375</v>
+      </c>
+      <c r="S111" s="2">
+        <v>0.28260826700000002</v>
+      </c>
+      <c r="V111" s="2">
+        <v>1</v>
+      </c>
+      <c r="W111" s="2">
+        <v>0</v>
+      </c>
+      <c r="X111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y111" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z111" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA111" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD111" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ111" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>3</v>
+      </c>
+      <c r="B112" s="2">
+        <v>3</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="2">
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="I112" s="2">
+        <v>21</v>
+      </c>
+      <c r="J112" s="2">
+        <v>21</v>
+      </c>
+      <c r="K112" s="2">
+        <v>27</v>
+      </c>
+      <c r="L112" s="2">
+        <f>K112-J112</f>
+        <v>6</v>
+      </c>
+      <c r="M112" s="2">
+        <v>24</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P112" s="2">
+        <v>2089.0710382513648</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>2006.010929</v>
+      </c>
+      <c r="R112" s="2">
+        <v>74.478850435137048</v>
+      </c>
+      <c r="S112" s="2">
+        <v>74.478850440000002</v>
+      </c>
+      <c r="T112" s="2">
+        <v>480</v>
+      </c>
+      <c r="U112" s="2">
+        <v>480</v>
+      </c>
+      <c r="V112" s="2">
+        <v>1</v>
+      </c>
+      <c r="W112" s="2">
+        <v>1</v>
+      </c>
+      <c r="X112" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y112" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB112" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:36" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>1</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="2">
+        <v>18</v>
+      </c>
+      <c r="J113" s="2">
+        <v>18</v>
+      </c>
+      <c r="K113" s="2">
+        <v>28</v>
+      </c>
+      <c r="L113" s="2">
+        <f>K113-J113</f>
+        <v>10</v>
+      </c>
+      <c r="M113" s="2">
+        <v>24</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P113" s="2">
+        <v>86.5139949</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>83.460559799999999</v>
+      </c>
+      <c r="R113" s="2">
+        <v>3.1170483449999997</v>
+      </c>
+      <c r="S113" s="2">
+        <v>6.361323155</v>
+      </c>
+      <c r="T113" s="2">
+        <v>12</v>
+      </c>
+      <c r="U113" s="2">
+        <v>12</v>
+      </c>
+      <c r="V113" s="2">
+        <v>1</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+      <c r="X113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y113" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD113" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:36" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="2">
+        <v>18</v>
+      </c>
+      <c r="J114" s="2">
+        <v>18</v>
+      </c>
+      <c r="K114" s="2">
+        <v>28</v>
+      </c>
+      <c r="L114" s="2">
+        <f>K114-J114</f>
+        <v>10</v>
+      </c>
+      <c r="M114" s="2">
+        <v>24</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P114" s="2">
+        <v>21.628498699999994</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>80.91603053</v>
+      </c>
+      <c r="R114" s="2">
+        <v>6.4885496200000006</v>
+      </c>
+      <c r="S114" s="2">
+        <v>6.9974554710000003</v>
+      </c>
+      <c r="T114" s="2">
+        <v>12</v>
+      </c>
+      <c r="U114" s="2">
+        <v>12</v>
+      </c>
+      <c r="V114" s="2">
+        <v>1</v>
+      </c>
+      <c r="W114" s="2">
+        <v>0</v>
+      </c>
+      <c r="X114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y114" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB114" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ114" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763313DD-8534-5C4C-8D9C-F3CA4E15A34E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/excludeddata_14march.xlsx
+++ b/excludeddata_14march.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A7E17-95B2-6543-AA29-7C27556E553A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7892A4D-006D-9747-B70D-B0BC124C8383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29680" yWindow="-6800" windowWidth="23120" windowHeight="15460" activeTab="1" xr2:uid="{1D94ADF6-B785-974B-BAAC-3A422A96ECD2}"/>
+    <workbookView xWindow="29680" yWindow="-6820" windowWidth="23120" windowHeight="15460" xr2:uid="{1D94ADF6-B785-974B-BAAC-3A422A96ECD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="120">
   <si>
     <t>kern_2015phys</t>
   </si>
@@ -278,6 +278,114 @@
   </si>
   <si>
     <t xml:space="preserve">multiple time points </t>
+  </si>
+  <si>
+    <t>response_id</t>
+  </si>
+  <si>
+    <t>experiment_id</t>
+  </si>
+  <si>
+    <t>study_id</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>org_level</t>
+  </si>
+  <si>
+    <t>flux_treatment</t>
+  </si>
+  <si>
+    <t>flux_pattern</t>
+  </si>
+  <si>
+    <t>temp_ini</t>
+  </si>
+  <si>
+    <t>mean_temp_constant</t>
+  </si>
+  <si>
+    <t>min_temp</t>
+  </si>
+  <si>
+    <t>max_temp</t>
+  </si>
+  <si>
+    <t>flux_range</t>
+  </si>
+  <si>
+    <t>period_flux</t>
+  </si>
+  <si>
+    <t>resp_def</t>
+  </si>
+  <si>
+    <t>resp_units</t>
+  </si>
+  <si>
+    <t>constant_resp</t>
+  </si>
+  <si>
+    <t>flux_resp</t>
+  </si>
+  <si>
+    <t>constant_variance</t>
+  </si>
+  <si>
+    <t>flux_variance</t>
+  </si>
+  <si>
+    <t>constant_samp</t>
+  </si>
+  <si>
+    <t>flux_samp</t>
+  </si>
+  <si>
+    <t>resp_quality</t>
+  </si>
+  <si>
+    <t>variance_type</t>
+  </si>
+  <si>
+    <t>genus</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>larger_group</t>
+  </si>
+  <si>
+    <t>exp_age</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_covariate </t>
+  </si>
+  <si>
+    <t>add_covariate_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extra_covariate </t>
+  </si>
+  <si>
+    <t>extra_value</t>
+  </si>
+  <si>
+    <t>add_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time_point </t>
+  </si>
+  <si>
+    <t>time_units</t>
+  </si>
+  <si>
+    <t>same_mean (y/n)</t>
   </si>
 </sst>
 </file>
@@ -644,102 +752,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1019FBED-5882-294F-8C12-AE6AC4298203}">
-  <dimension ref="A1:AJ114"/>
+  <dimension ref="A1:AJ115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3">
-        <v>1</v>
-      </c>
-      <c r="I1" s="3">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3">
-        <v>30</v>
-      </c>
-      <c r="L1" s="3">
-        <f t="shared" ref="L1:L32" si="0">K1-J1</f>
-        <v>10</v>
-      </c>
-      <c r="M1" s="3">
-        <v>24</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="3">
-        <v>39.721402930000004</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>40.514995859999999</v>
-      </c>
-      <c r="R1" s="3">
-        <v>7.5117371000000002E-2</v>
-      </c>
-      <c r="S1" s="3">
-        <v>0.16901408500000001</v>
-      </c>
-      <c r="T1" s="3">
-        <v>192</v>
-      </c>
-      <c r="U1" s="3">
-        <v>192</v>
-      </c>
-      <c r="V1" s="3">
-        <v>1</v>
-      </c>
-      <c r="W1" s="3">
-        <v>0</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="3">
-        <v>2</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>6</v>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -750,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -771,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="L2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L2:L33" si="0">K2-J2</f>
         <v>10</v>
       </c>
       <c r="M2" s="3">
@@ -784,22 +915,22 @@
         <v>3</v>
       </c>
       <c r="P2" s="3">
-        <v>40.488262910000003</v>
+        <v>39.721402930000004</v>
       </c>
       <c r="Q2" s="3">
-        <v>41.57722708</v>
+        <v>40.514995859999999</v>
       </c>
       <c r="R2" s="3">
-        <v>0.112676056</v>
+        <v>7.5117371000000002E-2</v>
       </c>
       <c r="S2" s="3">
-        <v>9.3896714000000006E-2</v>
+        <v>0.16901408500000001</v>
       </c>
       <c r="T2" s="3">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="U2" s="3">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="V2" s="3">
         <v>1</v>
@@ -811,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="3">
         <v>1</v>
@@ -837,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -871,22 +1002,22 @@
         <v>3</v>
       </c>
       <c r="P3" s="3">
-        <v>41.73584906</v>
+        <v>40.488262910000003</v>
       </c>
       <c r="Q3" s="3">
-        <v>42.90566038</v>
+        <v>41.57722708</v>
       </c>
       <c r="R3" s="3">
-        <v>0.15094339600000001</v>
+        <v>0.112676056</v>
       </c>
       <c r="S3" s="3">
-        <v>0.132075472</v>
+        <v>9.3896714000000006E-2</v>
       </c>
       <c r="T3" s="3">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="U3" s="3">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="V3" s="3">
         <v>1</v>
@@ -895,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="3">
         <v>1</v>
@@ -913,18 +1044,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -936,13 +1067,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="0"/>
@@ -958,22 +1089,22 @@
         <v>3</v>
       </c>
       <c r="P4" s="3">
-        <v>39.8815144</v>
+        <v>41.73584906</v>
       </c>
       <c r="Q4" s="3">
-        <v>40.29342261</v>
+        <v>42.90566038</v>
       </c>
       <c r="R4" s="3">
-        <v>0.13501144000000001</v>
+        <v>0.15094339600000001</v>
       </c>
       <c r="S4" s="3">
-        <v>6.8649885999999993E-2</v>
+        <v>0.132075472</v>
       </c>
       <c r="T4" s="3">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="U4" s="3">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="V4" s="3">
         <v>1</v>
@@ -982,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="3">
         <v>1</v>
@@ -996,14 +1127,8 @@
       <c r="AB4" s="3">
         <v>2</v>
       </c>
-      <c r="AC4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="AJ4" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1051,16 +1176,16 @@
         <v>3</v>
       </c>
       <c r="P5" s="3">
-        <v>39.947047900000001</v>
+        <v>39.8815144</v>
       </c>
       <c r="Q5" s="3">
-        <v>40.432164829999998</v>
+        <v>40.29342261</v>
       </c>
       <c r="R5" s="3">
-        <v>0.13043478</v>
+        <v>0.13501144000000001</v>
       </c>
       <c r="S5" s="3">
-        <v>0.11442537999999999</v>
+        <v>6.8649885999999993E-2</v>
       </c>
       <c r="T5" s="3">
         <v>12</v>
@@ -1093,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1107,35 +1232,32 @@
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
         <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3">
-        <v>24</v>
       </c>
       <c r="J6" s="3">
         <v>18</v>
       </c>
       <c r="K6" s="3">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M6" s="3">
         <v>24</v>
@@ -1144,25 +1266,25 @@
         <v>2</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="P6" s="3">
-        <v>42.15384615</v>
+        <v>39.947047900000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>42.335664340000001</v>
+        <v>40.432164829999998</v>
       </c>
       <c r="R6" s="3">
-        <v>0.125874126</v>
+        <v>0.13043478</v>
       </c>
       <c r="S6" s="3">
-        <v>0.12937062899999999</v>
+        <v>0.11442537999999999</v>
       </c>
       <c r="T6" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="U6" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V6" s="3">
         <v>1</v>
@@ -1171,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="3">
         <v>1</v>
@@ -1189,10 +1311,10 @@
         <v>14</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1243,16 +1365,16 @@
         <v>20</v>
       </c>
       <c r="P7" s="3">
-        <v>41.398601399999997</v>
+        <v>42.15384615</v>
       </c>
       <c r="Q7" s="3">
-        <v>43.006993010000002</v>
+        <v>42.335664340000001</v>
       </c>
       <c r="R7" s="3">
-        <v>0.12237762200000001</v>
+        <v>0.125874126</v>
       </c>
       <c r="S7" s="3">
-        <v>0.19580419600000001</v>
+        <v>0.12937062899999999</v>
       </c>
       <c r="T7" s="3">
         <v>8</v>
@@ -1285,108 +1407,105 @@
         <v>14</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>28</v>
-      </c>
-      <c r="J8">
-        <v>25</v>
-      </c>
-      <c r="K8">
-        <v>31</v>
-      </c>
-      <c r="L8">
+    <row r="8" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3">
+        <v>24</v>
+      </c>
+      <c r="J8" s="3">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3">
+        <v>32</v>
+      </c>
+      <c r="L8" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8">
-        <v>238.68194840000001</v>
-      </c>
-      <c r="Q8">
-        <v>252.72206299999999</v>
-      </c>
-      <c r="R8">
-        <v>13.538681950000001</v>
-      </c>
-      <c r="S8">
-        <v>13.037249279999999</v>
-      </c>
-      <c r="T8">
-        <v>23</v>
-      </c>
-      <c r="U8">
-        <v>24</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>2</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH8">
-        <v>389.52915200000001</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3">
+        <v>24</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="3">
+        <v>41.398601399999997</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>43.006993010000002</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.12237762200000001</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.19580419600000001</v>
+      </c>
+      <c r="T8" s="3">
+        <v>8</v>
+      </c>
+      <c r="U8" s="3">
+        <v>8</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1435,16 +1554,16 @@
         <v>24</v>
       </c>
       <c r="P9">
-        <v>153.43839539999999</v>
+        <v>238.68194840000001</v>
       </c>
       <c r="Q9">
-        <v>153.43839539999999</v>
+        <v>252.72206299999999</v>
       </c>
       <c r="R9">
-        <v>5.5157593120000001</v>
+        <v>13.538681950000001</v>
       </c>
       <c r="S9">
-        <v>5.5157593120000001</v>
+        <v>13.037249279999999</v>
       </c>
       <c r="T9">
         <v>23</v>
@@ -1480,7 +1599,7 @@
         <v>28</v>
       </c>
       <c r="AH9">
-        <v>270.05586529999999</v>
+        <v>389.52915200000001</v>
       </c>
       <c r="AI9" t="s">
         <v>29</v>
@@ -1534,16 +1653,16 @@
         <v>24</v>
       </c>
       <c r="P10">
-        <v>68.194842410000007</v>
+        <v>153.43839539999999</v>
       </c>
       <c r="Q10">
-        <v>71.203438399999996</v>
+        <v>153.43839539999999</v>
       </c>
       <c r="R10">
-        <v>3.7607449860000002</v>
+        <v>5.5157593120000001</v>
       </c>
       <c r="S10">
-        <v>5.0143266479999999</v>
+        <v>5.5157593120000001</v>
       </c>
       <c r="T10">
         <v>23</v>
@@ -1579,7 +1698,7 @@
         <v>28</v>
       </c>
       <c r="AH10">
-        <v>179.75762889999999</v>
+        <v>270.05586529999999</v>
       </c>
       <c r="AI10" t="s">
         <v>29</v>
@@ -1633,10 +1752,10 @@
         <v>24</v>
       </c>
       <c r="P11">
-        <v>34.097421199999999</v>
+        <v>68.194842410000007</v>
       </c>
       <c r="Q11">
-        <v>34.097421199999999</v>
+        <v>71.203438399999996</v>
       </c>
       <c r="R11">
         <v>3.7607449860000002</v>
@@ -1678,7 +1797,7 @@
         <v>28</v>
       </c>
       <c r="AH11">
-        <v>89.312378570000007</v>
+        <v>179.75762889999999</v>
       </c>
       <c r="AI11" t="s">
         <v>29</v>
@@ -1732,10 +1851,16 @@
         <v>24</v>
       </c>
       <c r="P12">
-        <v>6.0171919770000004</v>
+        <v>34.097421199999999</v>
       </c>
       <c r="Q12">
-        <v>6.0171919770000004</v>
+        <v>34.097421199999999</v>
+      </c>
+      <c r="R12">
+        <v>3.7607449860000002</v>
+      </c>
+      <c r="S12">
+        <v>5.0143266479999999</v>
       </c>
       <c r="T12">
         <v>23</v>
@@ -1771,7 +1896,7 @@
         <v>28</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>89.312378570000007</v>
       </c>
       <c r="AI12" t="s">
         <v>29</v>
@@ -1806,14 +1931,14 @@
         <v>28</v>
       </c>
       <c r="J13">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>24</v>
@@ -1825,16 +1950,10 @@
         <v>24</v>
       </c>
       <c r="P13">
-        <v>238.68194840000001</v>
+        <v>6.0171919770000004</v>
       </c>
       <c r="Q13">
-        <v>263.25214899999997</v>
-      </c>
-      <c r="R13">
-        <v>13.538681950000001</v>
-      </c>
-      <c r="S13">
-        <v>13.28796562</v>
+        <v>6.0171919770000004</v>
       </c>
       <c r="T13">
         <v>23</v>
@@ -1870,7 +1989,7 @@
         <v>28</v>
       </c>
       <c r="AH13">
-        <v>389.52915200000001</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="s">
         <v>29</v>
@@ -1924,16 +2043,16 @@
         <v>24</v>
       </c>
       <c r="P14">
-        <v>153.43839539999999</v>
+        <v>238.68194840000001</v>
       </c>
       <c r="Q14">
-        <v>165.47277940000001</v>
+        <v>263.25214899999997</v>
       </c>
       <c r="R14">
-        <v>5.5157593120000001</v>
+        <v>13.538681950000001</v>
       </c>
       <c r="S14">
-        <v>6.5186246419999998</v>
+        <v>13.28796562</v>
       </c>
       <c r="T14">
         <v>23</v>
@@ -1969,7 +2088,7 @@
         <v>28</v>
       </c>
       <c r="AH14">
-        <v>270.05586529999999</v>
+        <v>389.52915200000001</v>
       </c>
       <c r="AI14" t="s">
         <v>29</v>
@@ -2023,16 +2142,16 @@
         <v>24</v>
       </c>
       <c r="P15">
-        <v>68.194842410000007</v>
+        <v>153.43839539999999</v>
       </c>
       <c r="Q15">
-        <v>80.229226359999998</v>
+        <v>165.47277940000001</v>
       </c>
       <c r="R15">
-        <v>3.7607449860000002</v>
+        <v>5.5157593120000001</v>
       </c>
       <c r="S15">
-        <v>5.5157593120000001</v>
+        <v>6.5186246419999998</v>
       </c>
       <c r="T15">
         <v>23</v>
@@ -2068,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="AH15">
-        <v>179.75762889999999</v>
+        <v>270.05586529999999</v>
       </c>
       <c r="AI15" t="s">
         <v>29</v>
@@ -2122,16 +2241,16 @@
         <v>24</v>
       </c>
       <c r="P16">
-        <v>34.097421199999999</v>
+        <v>68.194842410000007</v>
       </c>
       <c r="Q16">
-        <v>40.114613179999999</v>
+        <v>80.229226359999998</v>
       </c>
       <c r="R16">
         <v>3.7607449860000002</v>
       </c>
       <c r="S16">
-        <v>3.0085959889999998</v>
+        <v>5.5157593120000001</v>
       </c>
       <c r="T16">
         <v>23</v>
@@ -2167,7 +2286,7 @@
         <v>28</v>
       </c>
       <c r="AH16">
-        <v>89.312378570000007</v>
+        <v>179.75762889999999</v>
       </c>
       <c r="AI16" t="s">
         <v>29</v>
@@ -2221,10 +2340,16 @@
         <v>24</v>
       </c>
       <c r="P17">
-        <v>6.0171919770000004</v>
+        <v>34.097421199999999</v>
       </c>
       <c r="Q17">
-        <v>5.0143266479999999</v>
+        <v>40.114613179999999</v>
+      </c>
+      <c r="R17">
+        <v>3.7607449860000002</v>
+      </c>
+      <c r="S17">
+        <v>3.0085959889999998</v>
       </c>
       <c r="T17">
         <v>23</v>
@@ -2260,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>89.312378570000007</v>
       </c>
       <c r="AI17" t="s">
         <v>29</v>
@@ -2295,14 +2420,14 @@
         <v>28</v>
       </c>
       <c r="J18">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K18">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M18">
         <v>24</v>
@@ -2314,22 +2439,16 @@
         <v>24</v>
       </c>
       <c r="P18">
-        <v>111.3180516</v>
+        <v>6.0171919770000004</v>
       </c>
       <c r="Q18">
-        <v>97.277936960000005</v>
-      </c>
-      <c r="R18">
-        <v>38.108882520000002</v>
-      </c>
-      <c r="S18">
-        <v>22.56446991</v>
+        <v>5.0143266479999999</v>
       </c>
       <c r="T18">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -2356,10 +2475,10 @@
         <v>27</v>
       </c>
       <c r="AD18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH18">
-        <v>388.88920919999998</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="s">
         <v>29</v>
@@ -2413,16 +2532,16 @@
         <v>24</v>
       </c>
       <c r="P19">
-        <v>103.29512889999999</v>
+        <v>111.3180516</v>
       </c>
       <c r="Q19">
-        <v>95.272206299999993</v>
+        <v>97.277936960000005</v>
       </c>
       <c r="R19">
-        <v>18.051575929999998</v>
+        <v>38.108882520000002</v>
       </c>
       <c r="S19">
-        <v>12.03438395</v>
+        <v>22.56446991</v>
       </c>
       <c r="T19">
         <v>14</v>
@@ -2458,7 +2577,7 @@
         <v>30</v>
       </c>
       <c r="AH19">
-        <v>270.1999965</v>
+        <v>388.88920919999998</v>
       </c>
       <c r="AI19" t="s">
         <v>29</v>
@@ -2512,16 +2631,16 @@
         <v>24</v>
       </c>
       <c r="P20">
-        <v>63.180515759999999</v>
+        <v>103.29512889999999</v>
       </c>
       <c r="Q20">
-        <v>60.171919770000002</v>
+        <v>95.272206299999993</v>
       </c>
       <c r="R20">
-        <v>7.0200573070000001</v>
+        <v>18.051575929999998</v>
       </c>
       <c r="S20">
-        <v>6.5186246419999998</v>
+        <v>12.03438395</v>
       </c>
       <c r="T20">
         <v>14</v>
@@ -2557,7 +2676,7 @@
         <v>30</v>
       </c>
       <c r="AH20">
-        <v>179.772042</v>
+        <v>270.1999965</v>
       </c>
       <c r="AI20" t="s">
         <v>29</v>
@@ -2611,16 +2730,16 @@
         <v>24</v>
       </c>
       <c r="P21">
-        <v>38.108882520000002</v>
+        <v>63.180515759999999</v>
       </c>
       <c r="Q21">
-        <v>29.083094559999999</v>
+        <v>60.171919770000002</v>
       </c>
       <c r="R21">
-        <v>8.5243553009999999</v>
+        <v>7.0200573070000001</v>
       </c>
       <c r="S21">
-        <v>4.5128939829999997</v>
+        <v>6.5186246419999998</v>
       </c>
       <c r="T21">
         <v>14</v>
@@ -2656,7 +2775,7 @@
         <v>30</v>
       </c>
       <c r="AH21">
-        <v>89.300848070000001</v>
+        <v>179.772042</v>
       </c>
       <c r="AI21" t="s">
         <v>29</v>
@@ -2710,10 +2829,16 @@
         <v>24</v>
       </c>
       <c r="P22">
-        <v>6.0171919770000004</v>
+        <v>38.108882520000002</v>
       </c>
       <c r="Q22">
-        <v>6.0171919770000004</v>
+        <v>29.083094559999999</v>
+      </c>
+      <c r="R22">
+        <v>8.5243553009999999</v>
+      </c>
+      <c r="S22">
+        <v>4.5128939829999997</v>
       </c>
       <c r="T22">
         <v>14</v>
@@ -2749,7 +2874,7 @@
         <v>30</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>89.300848070000001</v>
       </c>
       <c r="AI22" t="s">
         <v>29</v>
@@ -2784,14 +2909,14 @@
         <v>28</v>
       </c>
       <c r="J23">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K23">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>24</v>
@@ -2803,22 +2928,16 @@
         <v>24</v>
       </c>
       <c r="P23">
-        <v>111.3180516</v>
+        <v>6.0171919770000004</v>
       </c>
       <c r="Q23">
-        <v>112.3209169</v>
-      </c>
-      <c r="R23">
-        <v>38.108882520000002</v>
-      </c>
-      <c r="S23">
-        <v>17.800859599999999</v>
+        <v>6.0171919770000004</v>
       </c>
       <c r="T23">
         <v>14</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -2848,7 +2967,7 @@
         <v>30</v>
       </c>
       <c r="AH23">
-        <v>388.88920919999998</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="s">
         <v>29</v>
@@ -2902,16 +3021,16 @@
         <v>24</v>
       </c>
       <c r="P24">
-        <v>103.29512889999999</v>
+        <v>111.3180516</v>
       </c>
       <c r="Q24">
-        <v>103.29512889999999</v>
+        <v>112.3209169</v>
       </c>
       <c r="R24">
-        <v>18.051575929999998</v>
+        <v>38.108882520000002</v>
       </c>
       <c r="S24">
-        <v>18.553008599999998</v>
+        <v>17.800859599999999</v>
       </c>
       <c r="T24">
         <v>14</v>
@@ -2947,7 +3066,7 @@
         <v>30</v>
       </c>
       <c r="AH24">
-        <v>270.1999965</v>
+        <v>388.88920919999998</v>
       </c>
       <c r="AI24" t="s">
         <v>29</v>
@@ -3001,16 +3120,16 @@
         <v>24</v>
       </c>
       <c r="P25">
-        <v>63.180515759999999</v>
+        <v>103.29512889999999</v>
       </c>
       <c r="Q25">
-        <v>61.174785100000001</v>
+        <v>103.29512889999999</v>
       </c>
       <c r="R25">
-        <v>7.0200573070000001</v>
+        <v>18.051575929999998</v>
       </c>
       <c r="S25">
-        <v>10.0286533</v>
+        <v>18.553008599999998</v>
       </c>
       <c r="T25">
         <v>14</v>
@@ -3046,7 +3165,7 @@
         <v>30</v>
       </c>
       <c r="AH25">
-        <v>179.772042</v>
+        <v>270.1999965</v>
       </c>
       <c r="AI25" t="s">
         <v>29</v>
@@ -3100,16 +3219,16 @@
         <v>24</v>
       </c>
       <c r="P26">
-        <v>38.108882520000002</v>
+        <v>63.180515759999999</v>
       </c>
       <c r="Q26">
-        <v>39.11174785</v>
+        <v>61.174785100000001</v>
       </c>
       <c r="R26">
-        <v>8.5243553009999999</v>
+        <v>7.0200573070000001</v>
       </c>
       <c r="S26">
-        <v>11.03151862</v>
+        <v>10.0286533</v>
       </c>
       <c r="T26">
         <v>14</v>
@@ -3145,7 +3264,7 @@
         <v>30</v>
       </c>
       <c r="AH26">
-        <v>89.300848070000001</v>
+        <v>179.772042</v>
       </c>
       <c r="AI26" t="s">
         <v>29</v>
@@ -3199,10 +3318,16 @@
         <v>24</v>
       </c>
       <c r="P27">
-        <v>6.0171919770000004</v>
+        <v>38.108882520000002</v>
       </c>
       <c r="Q27">
-        <v>6.0171919770000004</v>
+        <v>39.11174785</v>
+      </c>
+      <c r="R27">
+        <v>8.5243553009999999</v>
+      </c>
+      <c r="S27">
+        <v>11.03151862</v>
       </c>
       <c r="T27">
         <v>14</v>
@@ -3238,7 +3363,7 @@
         <v>30</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>89.300848070000001</v>
       </c>
       <c r="AI27" t="s">
         <v>29</v>
@@ -3249,16 +3374,16 @@
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3270,41 +3395,38 @@
         <v>1</v>
       </c>
       <c r="I28">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J28">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M28">
         <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P28">
-        <v>8.6286594999999994E-2</v>
+        <v>6.0171919770000004</v>
       </c>
       <c r="Q28">
-        <v>0.29583975299999998</v>
-      </c>
-      <c r="S28">
-        <v>1.97309417</v>
+        <v>6.0171919770000004</v>
       </c>
       <c r="T28">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="U28">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -3313,31 +3435,31 @@
         <v>0</v>
       </c>
       <c r="X28" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC28" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AD28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AH28">
-        <v>1.97309417</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="s">
         <v>6</v>
@@ -3388,16 +3510,13 @@
         <v>34</v>
       </c>
       <c r="P29">
-        <v>0.46841294300000003</v>
+        <v>8.6286594999999994E-2</v>
       </c>
       <c r="Q29">
-        <v>2.4653313E-2</v>
-      </c>
-      <c r="R29">
-        <v>0.24653312799999999</v>
+        <v>0.29583975299999998</v>
       </c>
       <c r="S29">
-        <v>4.9626307919999997</v>
+        <v>1.97309417</v>
       </c>
       <c r="T29">
         <v>300</v>
@@ -3433,7 +3552,7 @@
         <v>38</v>
       </c>
       <c r="AH29">
-        <v>4.9626307919999997</v>
+        <v>1.97309417</v>
       </c>
       <c r="AI29" t="s">
         <v>39</v>
@@ -3487,16 +3606,16 @@
         <v>34</v>
       </c>
       <c r="P30">
-        <v>1.0847457629999999</v>
+        <v>0.46841294300000003</v>
       </c>
       <c r="Q30">
-        <v>0.29583975299999998</v>
+        <v>2.4653313E-2</v>
       </c>
       <c r="R30">
-        <v>0.47457627099999999</v>
+        <v>0.24653312799999999</v>
       </c>
       <c r="S30">
-        <v>6.980568012</v>
+        <v>4.9626307919999997</v>
       </c>
       <c r="T30">
         <v>300</v>
@@ -3532,7 +3651,7 @@
         <v>38</v>
       </c>
       <c r="AH30">
-        <v>6.980568012</v>
+        <v>4.9626307919999997</v>
       </c>
       <c r="AI30" t="s">
         <v>39</v>
@@ -3586,16 +3705,16 @@
         <v>34</v>
       </c>
       <c r="P31">
-        <v>1.9722650230000001</v>
+        <v>1.0847457629999999</v>
       </c>
       <c r="Q31">
-        <v>1.2080123270000001</v>
+        <v>0.29583975299999998</v>
       </c>
       <c r="R31">
-        <v>0.67796610199999996</v>
+        <v>0.47457627099999999</v>
       </c>
       <c r="S31">
-        <v>8.961136024</v>
+        <v>6.980568012</v>
       </c>
       <c r="T31">
         <v>300</v>
@@ -3631,7 +3750,7 @@
         <v>38</v>
       </c>
       <c r="AH31">
-        <v>8.9237668160000005</v>
+        <v>6.980568012</v>
       </c>
       <c r="AI31" t="s">
         <v>39</v>
@@ -3685,16 +3804,16 @@
         <v>34</v>
       </c>
       <c r="P32">
-        <v>7.0508474579999998</v>
+        <v>1.9722650230000001</v>
       </c>
       <c r="Q32">
-        <v>5.1771956860000001</v>
+        <v>1.2080123270000001</v>
       </c>
       <c r="R32">
-        <v>1.2511556239999999</v>
+        <v>0.67796610199999996</v>
       </c>
       <c r="S32">
-        <v>11.98804185</v>
+        <v>8.961136024</v>
       </c>
       <c r="T32">
         <v>300</v>
@@ -3730,7 +3849,7 @@
         <v>38</v>
       </c>
       <c r="AH32">
-        <v>11.95067265</v>
+        <v>8.9237668160000005</v>
       </c>
       <c r="AI32" t="s">
         <v>39</v>
@@ -3771,7 +3890,7 @@
         <v>32</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L33:L64" si="1">K33-J33</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="M33">
@@ -3784,16 +3903,16 @@
         <v>34</v>
       </c>
       <c r="P33">
-        <v>7.1987673340000002</v>
+        <v>7.0508474579999998</v>
       </c>
       <c r="Q33">
-        <v>4.7334360550000003</v>
+        <v>5.1771956860000001</v>
       </c>
       <c r="R33">
-        <v>0.98613251199999996</v>
+        <v>1.2511556239999999</v>
       </c>
       <c r="S33">
-        <v>13.93124066</v>
+        <v>11.98804185</v>
       </c>
       <c r="T33">
         <v>300</v>
@@ -3829,7 +3948,7 @@
         <v>38</v>
       </c>
       <c r="AH33">
-        <v>13.96860987</v>
+        <v>11.95067265</v>
       </c>
       <c r="AI33" t="s">
         <v>39</v>
@@ -3870,7 +3989,7 @@
         <v>32</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L34:L65" si="1">K34-J34</f>
         <v>15</v>
       </c>
       <c r="M34">
@@ -3883,16 +4002,16 @@
         <v>34</v>
       </c>
       <c r="P34">
-        <v>4.1910631739999999</v>
+        <v>7.1987673340000002</v>
       </c>
       <c r="Q34">
-        <v>2.5885978430000001</v>
+        <v>4.7334360550000003</v>
       </c>
       <c r="R34">
-        <v>0.78890600899999996</v>
+        <v>0.98613251199999996</v>
       </c>
       <c r="S34">
-        <v>15.949177880000001</v>
+        <v>13.93124066</v>
       </c>
       <c r="T34">
         <v>300</v>
@@ -3928,7 +4047,7 @@
         <v>38</v>
       </c>
       <c r="AH34">
-        <v>15.949177880000001</v>
+        <v>13.96860987</v>
       </c>
       <c r="AI34" t="s">
         <v>39</v>
@@ -3982,16 +4101,16 @@
         <v>34</v>
       </c>
       <c r="P35">
-        <v>5.0292758089999996</v>
+        <v>4.1910631739999999</v>
       </c>
       <c r="Q35">
         <v>2.5885978430000001</v>
       </c>
       <c r="R35">
-        <v>0.66563944500000005</v>
+        <v>0.78890600899999996</v>
       </c>
       <c r="S35">
-        <v>18.9387145</v>
+        <v>15.949177880000001</v>
       </c>
       <c r="T35">
         <v>300</v>
@@ -4027,7 +4146,7 @@
         <v>38</v>
       </c>
       <c r="AH35">
-        <v>18.976083710000001</v>
+        <v>15.949177880000001</v>
       </c>
       <c r="AI35" t="s">
         <v>39</v>
@@ -4081,16 +4200,16 @@
         <v>34</v>
       </c>
       <c r="P36">
-        <v>2.8597842839999998</v>
+        <v>5.0292758089999996</v>
       </c>
       <c r="Q36">
-        <v>2.1448382129999999</v>
+        <v>2.5885978430000001</v>
       </c>
       <c r="R36">
-        <v>0.52388289700000001</v>
+        <v>0.66563944500000005</v>
       </c>
       <c r="S36">
-        <v>20.95665172</v>
+        <v>18.9387145</v>
       </c>
       <c r="T36">
         <v>300</v>
@@ -4126,7 +4245,7 @@
         <v>38</v>
       </c>
       <c r="AH36">
-        <v>20.95665172</v>
+        <v>18.976083710000001</v>
       </c>
       <c r="AI36" t="s">
         <v>39</v>
@@ -4180,16 +4299,16 @@
         <v>34</v>
       </c>
       <c r="P37">
-        <v>0.83821263499999998</v>
+        <v>2.8597842839999998</v>
       </c>
       <c r="Q37">
-        <v>0.71494607099999996</v>
+        <v>2.1448382129999999</v>
       </c>
       <c r="R37">
-        <v>0.21571648700000001</v>
+        <v>0.52388289700000001</v>
       </c>
       <c r="S37">
-        <v>22.97458894</v>
+        <v>20.95665172</v>
       </c>
       <c r="T37">
         <v>300</v>
@@ -4225,7 +4344,7 @@
         <v>38</v>
       </c>
       <c r="AH37">
-        <v>22.97458894</v>
+        <v>20.95665172</v>
       </c>
       <c r="AI37" t="s">
         <v>39</v>
@@ -4282,13 +4401,13 @@
         <v>0.83821263499999998</v>
       </c>
       <c r="Q38">
-        <v>0.32049306599999999</v>
+        <v>0.71494607099999996</v>
       </c>
       <c r="R38">
-        <v>0.24036979999999999</v>
+        <v>0.21571648700000001</v>
       </c>
       <c r="S38">
-        <v>25.964125559999999</v>
+        <v>22.97458894</v>
       </c>
       <c r="T38">
         <v>300</v>
@@ -4324,7 +4443,7 @@
         <v>38</v>
       </c>
       <c r="AH38">
-        <v>25.964125559999999</v>
+        <v>22.97458894</v>
       </c>
       <c r="AI38" t="s">
         <v>39</v>
@@ -4378,16 +4497,16 @@
         <v>34</v>
       </c>
       <c r="P39">
-        <v>0.46841294300000003</v>
+        <v>0.83821263499999998</v>
       </c>
       <c r="Q39">
-        <v>9.8613250999999999E-2</v>
+        <v>0.32049306599999999</v>
       </c>
       <c r="R39">
-        <v>0.197226502</v>
+        <v>0.24036979999999999</v>
       </c>
       <c r="S39">
-        <v>27.98206278</v>
+        <v>25.964125559999999</v>
       </c>
       <c r="T39">
         <v>300</v>
@@ -4423,7 +4542,7 @@
         <v>38</v>
       </c>
       <c r="AH39">
-        <v>27.98206278</v>
+        <v>25.964125559999999</v>
       </c>
       <c r="AI39" t="s">
         <v>39</v>
@@ -4477,13 +4596,16 @@
         <v>34</v>
       </c>
       <c r="P40">
-        <v>0.234206471</v>
+        <v>0.46841294300000003</v>
       </c>
       <c r="Q40">
-        <v>2.4653313E-2</v>
+        <v>9.8613250999999999E-2</v>
+      </c>
+      <c r="R40">
+        <v>0.197226502</v>
       </c>
       <c r="S40">
-        <v>30.971599399999999</v>
+        <v>27.98206278</v>
       </c>
       <c r="T40">
         <v>300</v>
@@ -4519,7 +4641,7 @@
         <v>38</v>
       </c>
       <c r="AH40">
-        <v>30.971599399999999</v>
+        <v>27.98206278</v>
       </c>
       <c r="AI40" t="s">
         <v>39</v>
@@ -4573,10 +4695,13 @@
         <v>34</v>
       </c>
       <c r="P41">
-        <v>0.17257318999999999</v>
+        <v>0.234206471</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>2.4653313E-2</v>
+      </c>
+      <c r="S41">
+        <v>30.971599399999999</v>
       </c>
       <c r="T41">
         <v>300</v>
@@ -4609,10 +4734,10 @@
         <v>37</v>
       </c>
       <c r="AD41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH41">
-        <v>1.97309417</v>
+        <v>30.971599399999999</v>
       </c>
       <c r="AI41" t="s">
         <v>39</v>
@@ -4666,7 +4791,7 @@
         <v>34</v>
       </c>
       <c r="P42">
-        <v>7.3959940000000002E-2</v>
+        <v>0.17257318999999999</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4705,7 +4830,7 @@
         <v>40</v>
       </c>
       <c r="AH42">
-        <v>4.9626307919999997</v>
+        <v>1.97309417</v>
       </c>
       <c r="AI42" t="s">
         <v>39</v>
@@ -4759,7 +4884,7 @@
         <v>34</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>7.3959940000000002E-2</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4798,7 +4923,7 @@
         <v>40</v>
       </c>
       <c r="AH43">
-        <v>6.980568012</v>
+        <v>4.9626307919999997</v>
       </c>
       <c r="AI43" t="s">
         <v>39</v>
@@ -4852,7 +4977,7 @@
         <v>34</v>
       </c>
       <c r="P44">
-        <v>2.4653310000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q44">
         <v>0</v>
@@ -4891,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="AH44">
-        <v>8.9237668160000005</v>
+        <v>6.980568012</v>
       </c>
       <c r="AI44" t="s">
         <v>39</v>
@@ -4945,13 +5070,10 @@
         <v>34</v>
       </c>
       <c r="P45">
-        <v>0.12326656</v>
+        <v>2.4653310000000001E-2</v>
       </c>
       <c r="Q45">
-        <v>0.123266564</v>
-      </c>
-      <c r="R45">
-        <v>0.123266564</v>
+        <v>0</v>
       </c>
       <c r="T45">
         <v>300</v>
@@ -4987,7 +5109,7 @@
         <v>40</v>
       </c>
       <c r="AH45">
-        <v>11.91330344</v>
+        <v>8.9237668160000005</v>
       </c>
       <c r="AI45" t="s">
         <v>39</v>
@@ -5041,16 +5163,13 @@
         <v>34</v>
       </c>
       <c r="P46">
-        <v>7.3959940000000002E-2</v>
+        <v>0.12326656</v>
       </c>
       <c r="Q46">
-        <v>0.59167950700000005</v>
+        <v>0.123266564</v>
       </c>
       <c r="R46">
-        <v>8.6286594999999994E-2</v>
-      </c>
-      <c r="S46">
-        <v>0.24653312799999999</v>
+        <v>0.123266564</v>
       </c>
       <c r="T46">
         <v>300</v>
@@ -5086,7 +5205,7 @@
         <v>40</v>
       </c>
       <c r="AH46">
-        <v>13.96860987</v>
+        <v>11.91330344</v>
       </c>
       <c r="AI46" t="s">
         <v>39</v>
@@ -5140,16 +5259,16 @@
         <v>34</v>
       </c>
       <c r="P47">
-        <v>0.12326656</v>
+        <v>7.3959940000000002E-2</v>
       </c>
       <c r="Q47">
-        <v>0.96147919900000001</v>
+        <v>0.59167950700000005</v>
       </c>
       <c r="R47">
-        <v>7.3959938000000003E-2</v>
+        <v>8.6286594999999994E-2</v>
       </c>
       <c r="S47">
-        <v>0.46841294300000003</v>
+        <v>0.24653312799999999</v>
       </c>
       <c r="T47">
         <v>300</v>
@@ -5185,7 +5304,7 @@
         <v>40</v>
       </c>
       <c r="AH47">
-        <v>15.949177880000001</v>
+        <v>13.96860987</v>
       </c>
       <c r="AI47" t="s">
         <v>39</v>
@@ -5239,16 +5358,16 @@
         <v>34</v>
       </c>
       <c r="P48">
-        <v>0.17257318999999999</v>
+        <v>0.12326656</v>
       </c>
       <c r="Q48">
-        <v>1.06009245</v>
+        <v>0.96147919900000001</v>
       </c>
       <c r="R48">
-        <v>0.110939908</v>
+        <v>7.3959938000000003E-2</v>
       </c>
       <c r="S48">
-        <v>0.45608628699999998</v>
+        <v>0.46841294300000003</v>
       </c>
       <c r="T48">
         <v>300</v>
@@ -5284,7 +5403,7 @@
         <v>40</v>
       </c>
       <c r="AH48">
-        <v>18.9387145</v>
+        <v>15.949177880000001</v>
       </c>
       <c r="AI48" t="s">
         <v>39</v>
@@ -5338,16 +5457,16 @@
         <v>34</v>
       </c>
       <c r="P49">
-        <v>1.0107858199999999</v>
+        <v>0.17257318999999999</v>
       </c>
       <c r="Q49">
-        <v>1.6024653310000001</v>
+        <v>1.06009245</v>
       </c>
       <c r="R49">
-        <v>0.40677966100000001</v>
+        <v>0.110939908</v>
       </c>
       <c r="S49">
-        <v>0.55469953800000005</v>
+        <v>0.45608628699999998</v>
       </c>
       <c r="T49">
         <v>300</v>
@@ -5383,7 +5502,7 @@
         <v>40</v>
       </c>
       <c r="AH49">
-        <v>20.95665172</v>
+        <v>18.9387145</v>
       </c>
       <c r="AI49" t="s">
         <v>39</v>
@@ -5437,16 +5556,16 @@
         <v>34</v>
       </c>
       <c r="P50">
-        <v>2.1694915300000002</v>
+        <v>1.0107858199999999</v>
       </c>
       <c r="Q50">
-        <v>2.1201848999999999</v>
+        <v>1.6024653310000001</v>
       </c>
       <c r="R50">
-        <v>0.75808936800000004</v>
+        <v>0.40677966100000001</v>
       </c>
       <c r="S50">
-        <v>0.56702619399999998</v>
+        <v>0.55469953800000005</v>
       </c>
       <c r="T50">
         <v>300</v>
@@ -5482,7 +5601,7 @@
         <v>40</v>
       </c>
       <c r="AH50">
-        <v>22.97458894</v>
+        <v>20.95665172</v>
       </c>
       <c r="AI50" t="s">
         <v>39</v>
@@ -5536,16 +5655,16 @@
         <v>34</v>
       </c>
       <c r="P51">
-        <v>1.65177196</v>
+        <v>2.1694915300000002</v>
       </c>
       <c r="Q51">
-        <v>1.725731895</v>
+        <v>2.1201848999999999</v>
       </c>
       <c r="R51">
-        <v>0.64714946100000004</v>
+        <v>0.75808936800000004</v>
       </c>
       <c r="S51">
-        <v>0.45608628699999998</v>
+        <v>0.56702619399999998</v>
       </c>
       <c r="T51">
         <v>300</v>
@@ -5581,7 +5700,7 @@
         <v>40</v>
       </c>
       <c r="AH51">
-        <v>25.964125559999999</v>
+        <v>22.97458894</v>
       </c>
       <c r="AI51" t="s">
         <v>39</v>
@@ -5635,16 +5754,16 @@
         <v>34</v>
       </c>
       <c r="P52">
-        <v>1.7257319</v>
+        <v>1.65177196</v>
       </c>
       <c r="Q52">
-        <v>1.06009245</v>
+        <v>1.725731895</v>
       </c>
       <c r="R52">
+        <v>0.64714946100000004</v>
+      </c>
+      <c r="S52">
         <v>0.45608628699999998</v>
-      </c>
-      <c r="S52">
-        <v>0.24653312799999999</v>
       </c>
       <c r="T52">
         <v>300</v>
@@ -5680,7 +5799,7 @@
         <v>40</v>
       </c>
       <c r="AH52">
-        <v>27.98206278</v>
+        <v>25.964125559999999</v>
       </c>
       <c r="AI52" t="s">
         <v>39</v>
@@ -5734,16 +5853,16 @@
         <v>34</v>
       </c>
       <c r="P53">
-        <v>1.5285053900000001</v>
+        <v>1.7257319</v>
       </c>
       <c r="Q53">
-        <v>0.41910631700000001</v>
+        <v>1.06009245</v>
       </c>
       <c r="R53">
-        <v>0.53004622499999998</v>
+        <v>0.45608628699999998</v>
       </c>
       <c r="S53">
-        <v>0.197226502</v>
+        <v>0.24653312799999999</v>
       </c>
       <c r="T53">
         <v>300</v>
@@ -5779,7 +5898,7 @@
         <v>40</v>
       </c>
       <c r="AH53">
-        <v>30.971599399999999</v>
+        <v>27.98206278</v>
       </c>
       <c r="AI53" t="s">
         <v>39</v>
@@ -5790,16 +5909,16 @@
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -5827,16 +5946,22 @@
         <v>24</v>
       </c>
       <c r="N54" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="O54" t="s">
         <v>34</v>
       </c>
       <c r="P54">
-        <v>5.4762784000000002E-2</v>
+        <v>1.5285053900000001</v>
       </c>
       <c r="Q54">
-        <v>0.10563030700000001</v>
+        <v>0.41910631700000001</v>
+      </c>
+      <c r="R54">
+        <v>0.53004622499999998</v>
+      </c>
+      <c r="S54">
+        <v>0.197226502</v>
       </c>
       <c r="T54">
         <v>300</v>
@@ -5869,10 +5994,10 @@
         <v>37</v>
       </c>
       <c r="AD54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH54">
-        <v>2.078618074</v>
+        <v>30.971599399999999</v>
       </c>
       <c r="AI54" t="s">
         <v>39</v>
@@ -5926,10 +6051,10 @@
         <v>34</v>
       </c>
       <c r="P55">
-        <v>0.62201967999999996</v>
+        <v>5.4762784000000002E-2</v>
       </c>
       <c r="Q55">
-        <v>0.31597438799999999</v>
+        <v>0.10563030700000001</v>
       </c>
       <c r="T55">
         <v>300</v>
@@ -5965,7 +6090,7 @@
         <v>38</v>
       </c>
       <c r="AH55">
-        <v>5.0344972439999998</v>
+        <v>2.078618074</v>
       </c>
       <c r="AI55" t="s">
         <v>39</v>
@@ -6019,13 +6144,10 @@
         <v>34</v>
       </c>
       <c r="P56">
-        <v>1.6464732609999999</v>
+        <v>0.62201967999999996</v>
       </c>
       <c r="Q56">
-        <v>0.62622045100000001</v>
-      </c>
-      <c r="R56">
-        <v>0.663263618</v>
+        <v>0.31597438799999999</v>
       </c>
       <c r="T56">
         <v>300</v>
@@ -6061,7 +6183,7 @@
         <v>38</v>
       </c>
       <c r="AH56">
-        <v>7.0167521669999999</v>
+        <v>5.0344972439999998</v>
       </c>
       <c r="AI56" t="s">
         <v>39</v>
@@ -6115,16 +6237,13 @@
         <v>34</v>
       </c>
       <c r="P57">
-        <v>3.6914087860000002</v>
+        <v>1.6464732609999999</v>
       </c>
       <c r="Q57">
-        <v>1.8546787680000001</v>
+        <v>0.62622045100000001</v>
       </c>
       <c r="R57">
-        <v>1.071425844</v>
-      </c>
-      <c r="S57">
-        <v>0.51020278299999999</v>
+        <v>0.663263618</v>
       </c>
       <c r="T57">
         <v>300</v>
@@ -6160,7 +6279,7 @@
         <v>38</v>
       </c>
       <c r="AH57">
-        <v>9.0351591839999994</v>
+        <v>7.0167521669999999</v>
       </c>
       <c r="AI57" t="s">
         <v>39</v>
@@ -6214,16 +6333,16 @@
         <v>34</v>
       </c>
       <c r="P58">
-        <v>10.7383174</v>
+        <v>3.6914087860000002</v>
       </c>
       <c r="Q58">
-        <v>7.0139134639999998</v>
+        <v>1.8546787680000001</v>
       </c>
       <c r="R58">
-        <v>1.6836691829999999</v>
+        <v>1.071425844</v>
       </c>
       <c r="S58">
-        <v>1.301017096</v>
+        <v>0.51020278299999999</v>
       </c>
       <c r="T58">
         <v>300</v>
@@ -6259,7 +6378,7 @@
         <v>38</v>
       </c>
       <c r="AH58">
-        <v>12.02038011</v>
+        <v>9.0351591839999994</v>
       </c>
       <c r="AI58" t="s">
         <v>39</v>
@@ -6313,16 +6432,16 @@
         <v>34</v>
       </c>
       <c r="P59">
-        <v>17.88528075</v>
+        <v>10.7383174</v>
       </c>
       <c r="Q59">
-        <v>11.76284736</v>
+        <v>7.0139134639999998</v>
       </c>
       <c r="R59">
-        <v>2.0408111309999999</v>
+        <v>1.6836691829999999</v>
       </c>
       <c r="S59">
-        <v>1.6326489049999999</v>
+        <v>1.301017096</v>
       </c>
       <c r="T59">
         <v>300</v>
@@ -6358,7 +6477,7 @@
         <v>38</v>
       </c>
       <c r="AH59">
-        <v>14.03242232</v>
+        <v>12.02038011</v>
       </c>
       <c r="AI59" t="s">
         <v>39</v>
@@ -6412,16 +6531,16 @@
         <v>34</v>
       </c>
       <c r="P60">
-        <v>22.072991590000001</v>
+        <v>17.88528075</v>
       </c>
       <c r="Q60">
-        <v>14.419873470000001</v>
+        <v>11.76284736</v>
       </c>
       <c r="R60">
-        <v>2.1938719660000001</v>
+        <v>2.0408111309999999</v>
       </c>
       <c r="S60">
-        <v>1.7857097390000001</v>
+        <v>1.6326489049999999</v>
       </c>
       <c r="T60">
         <v>300</v>
@@ -6457,7 +6576,7 @@
         <v>38</v>
       </c>
       <c r="AH60">
-        <v>16.010731060000001</v>
+        <v>14.03242232</v>
       </c>
       <c r="AI60" t="s">
         <v>39</v>
@@ -6511,16 +6630,16 @@
         <v>34</v>
       </c>
       <c r="P61">
-        <v>27.181129630000001</v>
+        <v>22.072991590000001</v>
       </c>
       <c r="Q61">
-        <v>16.977073969999999</v>
+        <v>14.419873470000001</v>
       </c>
       <c r="R61">
-        <v>2.2959125220000001</v>
+        <v>2.1938719660000001</v>
       </c>
       <c r="S61">
-        <v>1.9388087629999999</v>
+        <v>1.7857097390000001</v>
       </c>
       <c r="T61">
         <v>300</v>
@@ -6556,7 +6675,7 @@
         <v>38</v>
       </c>
       <c r="AH61">
-        <v>18.998370609999998</v>
+        <v>16.010731060000001</v>
       </c>
       <c r="AI61" t="s">
         <v>39</v>
@@ -6610,16 +6729,16 @@
         <v>34</v>
       </c>
       <c r="P62">
-        <v>30.04231322</v>
+        <v>27.181129630000001</v>
       </c>
       <c r="Q62">
-        <v>19.123973679999999</v>
+        <v>16.977073969999999</v>
       </c>
       <c r="R62">
-        <v>2.3979530790000001</v>
+        <v>2.2959125220000001</v>
       </c>
       <c r="S62">
-        <v>2.1683618259999999</v>
+        <v>1.9388087629999999</v>
       </c>
       <c r="T62">
         <v>300</v>
@@ -6655,7 +6774,7 @@
         <v>38</v>
       </c>
       <c r="AH62">
-        <v>20.978334199999999</v>
+        <v>18.998370609999998</v>
       </c>
       <c r="AI62" t="s">
         <v>39</v>
@@ -6709,16 +6828,16 @@
         <v>34</v>
       </c>
       <c r="P63">
-        <v>30.862609320000001</v>
+        <v>30.04231322</v>
       </c>
       <c r="Q63">
-        <v>19.842305589999999</v>
+        <v>19.123973679999999</v>
       </c>
       <c r="R63">
-        <v>2.37244294</v>
+        <v>2.3979530790000001</v>
       </c>
       <c r="S63">
-        <v>2.1428134980000002</v>
+        <v>2.1683618259999999</v>
       </c>
       <c r="T63">
         <v>300</v>
@@ -6754,7 +6873,7 @@
         <v>38</v>
       </c>
       <c r="AH63">
-        <v>22.923418659999999</v>
+        <v>20.978334199999999</v>
       </c>
       <c r="AI63" t="s">
         <v>39</v>
@@ -6808,13 +6927,13 @@
         <v>34</v>
       </c>
       <c r="P64">
-        <v>31.736140639999999</v>
+        <v>30.862609320000001</v>
       </c>
       <c r="Q64">
-        <v>20.154537470000001</v>
+        <v>19.842305589999999</v>
       </c>
       <c r="R64">
-        <v>2.3214226610000002</v>
+        <v>2.37244294</v>
       </c>
       <c r="S64">
         <v>2.1428134980000002</v>
@@ -6853,7 +6972,7 @@
         <v>38</v>
       </c>
       <c r="AH64">
-        <v>25.95376606</v>
+        <v>22.923418659999999</v>
       </c>
       <c r="AI64" t="s">
         <v>39</v>
@@ -6894,7 +7013,7 @@
         <v>32</v>
       </c>
       <c r="L65">
-        <f t="shared" ref="L65:L96" si="2">K65-J65</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="M65">
@@ -6907,16 +7026,16 @@
         <v>34</v>
       </c>
       <c r="P65">
-        <v>32.199371159999998</v>
+        <v>31.736140639999999</v>
       </c>
       <c r="Q65">
-        <v>20.260626039999998</v>
+        <v>20.154537470000001</v>
       </c>
       <c r="R65">
-        <v>2.2448922439999999</v>
+        <v>2.3214226610000002</v>
       </c>
       <c r="S65">
-        <v>2.1683618259999999</v>
+        <v>2.1428134980000002</v>
       </c>
       <c r="T65">
         <v>300</v>
@@ -6952,7 +7071,7 @@
         <v>38</v>
       </c>
       <c r="AH65">
-        <v>27.936721110000001</v>
+        <v>25.95376606</v>
       </c>
       <c r="AI65" t="s">
         <v>39</v>
@@ -6993,7 +7112,7 @@
         <v>32</v>
       </c>
       <c r="L66">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L66:L97" si="2">K66-J66</f>
         <v>15</v>
       </c>
       <c r="M66">
@@ -7006,10 +7125,10 @@
         <v>34</v>
       </c>
       <c r="P66">
-        <v>32.409562479999998</v>
+        <v>32.199371159999998</v>
       </c>
       <c r="Q66">
-        <v>20.266736259999998</v>
+        <v>20.260626039999998</v>
       </c>
       <c r="R66">
         <v>2.2448922439999999</v>
@@ -7051,7 +7170,7 @@
         <v>38</v>
       </c>
       <c r="AH66">
-        <v>30.930470870000001</v>
+        <v>27.936721110000001</v>
       </c>
       <c r="AI66" t="s">
         <v>39</v>
@@ -7105,10 +7224,16 @@
         <v>34</v>
       </c>
       <c r="P67">
-        <v>0.20767086300000001</v>
+        <v>32.409562479999998</v>
       </c>
       <c r="Q67">
-        <v>0.105935817</v>
+        <v>20.266736259999998</v>
+      </c>
+      <c r="R67">
+        <v>2.2448922439999999</v>
+      </c>
+      <c r="S67">
+        <v>2.1683618259999999</v>
       </c>
       <c r="T67">
         <v>300</v>
@@ -7141,10 +7266,10 @@
         <v>37</v>
       </c>
       <c r="AD67" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH67">
-        <v>2.0035770209999999</v>
+        <v>30.930470870000001</v>
       </c>
       <c r="AI67" t="s">
         <v>39</v>
@@ -7198,10 +7323,10 @@
         <v>34</v>
       </c>
       <c r="P68">
-        <v>0.213857454</v>
+        <v>0.20767086300000001</v>
       </c>
       <c r="Q68">
-        <v>-4.1320315000000003E-2</v>
+        <v>0.105935817</v>
       </c>
       <c r="T68">
         <v>300</v>
@@ -7237,7 +7362,7 @@
         <v>40</v>
       </c>
       <c r="AH68">
-        <v>5.035006428</v>
+        <v>2.0035770209999999</v>
       </c>
       <c r="AI68" t="s">
         <v>39</v>
@@ -7291,10 +7416,10 @@
         <v>34</v>
       </c>
       <c r="P69">
-        <v>0.21805822499999999</v>
+        <v>0.213857454</v>
       </c>
       <c r="Q69">
-        <v>-3.7119543999999997E-2</v>
+        <v>-4.1320315000000003E-2</v>
       </c>
       <c r="T69">
         <v>300</v>
@@ -7330,7 +7455,7 @@
         <v>40</v>
       </c>
       <c r="AH69">
-        <v>7.0933844219999997</v>
+        <v>5.035006428</v>
       </c>
       <c r="AI69" t="s">
         <v>39</v>
@@ -7384,10 +7509,10 @@
         <v>34</v>
       </c>
       <c r="P70">
-        <v>0.22202986399999999</v>
+        <v>0.21805822499999999</v>
       </c>
       <c r="Q70">
-        <v>1.7948750999999999E-2</v>
+        <v>-3.7119543999999997E-2</v>
       </c>
       <c r="T70">
         <v>300</v>
@@ -7423,7 +7548,7 @@
         <v>40</v>
       </c>
       <c r="AH70">
-        <v>9.0394872510000006</v>
+        <v>7.0933844219999997</v>
       </c>
       <c r="AI70" t="s">
         <v>39</v>
@@ -7477,10 +7602,10 @@
         <v>34</v>
       </c>
       <c r="P71">
-        <v>0.330180633</v>
+        <v>0.22202986399999999</v>
       </c>
       <c r="Q71">
-        <v>0.228140077</v>
+        <v>1.7948750999999999E-2</v>
       </c>
       <c r="T71">
         <v>300</v>
@@ -7516,7 +7641,7 @@
         <v>40</v>
       </c>
       <c r="AH71">
-        <v>12.03336431</v>
+        <v>9.0394872510000006</v>
       </c>
       <c r="AI71" t="s">
         <v>39</v>
@@ -7570,13 +7695,10 @@
         <v>34</v>
       </c>
       <c r="P72">
-        <v>0.43634558299999998</v>
+        <v>0.330180633</v>
       </c>
       <c r="Q72">
-        <v>0.94654836600000003</v>
-      </c>
-      <c r="R72">
-        <v>0.25510139100000001</v>
+        <v>0.228140077</v>
       </c>
       <c r="T72">
         <v>300</v>
@@ -7612,7 +7734,7 @@
         <v>40</v>
       </c>
       <c r="AH72">
-        <v>14.05418995</v>
+        <v>12.03336431</v>
       </c>
       <c r="AI72" t="s">
         <v>39</v>
@@ -7666,16 +7788,13 @@
         <v>34</v>
       </c>
       <c r="P73">
-        <v>0.54235777799999996</v>
+        <v>0.43634558299999998</v>
       </c>
       <c r="Q73">
-        <v>1.715900556</v>
+        <v>0.94654836600000003</v>
       </c>
       <c r="R73">
-        <v>0.35714194799999999</v>
-      </c>
-      <c r="S73">
-        <v>0.68881194499999998</v>
+        <v>0.25510139100000001</v>
       </c>
       <c r="T73">
         <v>300</v>
@@ -7711,7 +7830,7 @@
         <v>40</v>
       </c>
       <c r="AH73">
-        <v>16.00016548</v>
+        <v>14.05418995</v>
       </c>
       <c r="AI73" t="s">
         <v>39</v>
@@ -7765,16 +7884,16 @@
         <v>34</v>
       </c>
       <c r="P74">
-        <v>0.75254910399999997</v>
+        <v>0.54235777799999996</v>
       </c>
       <c r="Q74">
-        <v>2.7933602350000002</v>
+        <v>1.715900556</v>
       </c>
       <c r="R74">
-        <v>0.30612167000000001</v>
+        <v>0.35714194799999999</v>
       </c>
       <c r="S74">
-        <v>1.096897794</v>
+        <v>0.68881194499999998</v>
       </c>
       <c r="T74">
         <v>300</v>
@@ -7810,7 +7929,7 @@
         <v>40</v>
       </c>
       <c r="AH74">
-        <v>18.993915250000001</v>
+        <v>16.00016548</v>
       </c>
       <c r="AI74" t="s">
         <v>39</v>
@@ -7864,16 +7983,16 @@
         <v>34</v>
       </c>
       <c r="P75">
-        <v>1.777079064</v>
+        <v>0.75254910399999997</v>
       </c>
       <c r="Q75">
-        <v>4.3280929769999998</v>
+        <v>2.7933602350000002</v>
       </c>
       <c r="R75">
-        <v>0.663263618</v>
+        <v>0.30612167000000001</v>
       </c>
       <c r="S75">
-        <v>1.3775475129999999</v>
+        <v>1.096897794</v>
       </c>
       <c r="T75">
         <v>300</v>
@@ -7909,7 +8028,7 @@
         <v>40</v>
       </c>
       <c r="AH75">
-        <v>21.013595219999999</v>
+        <v>18.993915250000001</v>
       </c>
       <c r="AI75" t="s">
         <v>39</v>
@@ -7963,16 +8082,16 @@
         <v>34</v>
       </c>
       <c r="P76">
-        <v>3.9240551450000001</v>
+        <v>1.777079064</v>
       </c>
       <c r="Q76">
-        <v>6.4749926799999997</v>
+        <v>4.3280929769999998</v>
       </c>
       <c r="R76">
-        <v>1.3265272349999999</v>
+        <v>0.663263618</v>
       </c>
       <c r="S76">
-        <v>1.5816286260000001</v>
+        <v>1.3775475129999999</v>
       </c>
       <c r="T76">
         <v>300</v>
@@ -8008,7 +8127,7 @@
         <v>40</v>
       </c>
       <c r="AH76">
-        <v>23.031874940000002</v>
+        <v>21.013595219999999</v>
       </c>
       <c r="AI76" t="s">
         <v>39</v>
@@ -8062,16 +8181,16 @@
         <v>34</v>
       </c>
       <c r="P77">
-        <v>5.6648548190000003</v>
+        <v>3.9240551450000001</v>
       </c>
       <c r="Q77">
-        <v>8.1138281760000002</v>
+        <v>6.4749926799999997</v>
       </c>
       <c r="R77">
-        <v>1.5306083479999999</v>
+        <v>1.3265272349999999</v>
       </c>
       <c r="S77">
-        <v>1.7857097390000001</v>
+        <v>1.5816286260000001</v>
       </c>
       <c r="T77">
         <v>300</v>
@@ -8107,7 +8226,7 @@
         <v>40</v>
       </c>
       <c r="AH77">
-        <v>26.023715259999999</v>
+        <v>23.031874940000002</v>
       </c>
       <c r="AI77" t="s">
         <v>39</v>
@@ -8161,16 +8280,16 @@
         <v>34</v>
       </c>
       <c r="P78">
-        <v>7.3014753619999997</v>
+        <v>5.6648548190000003</v>
       </c>
       <c r="Q78">
-        <v>9.2402459360000009</v>
+        <v>8.1138281760000002</v>
       </c>
       <c r="R78">
+        <v>1.5306083479999999</v>
+      </c>
+      <c r="S78">
         <v>1.7857097390000001</v>
-      </c>
-      <c r="S78">
-        <v>1.73472765</v>
       </c>
       <c r="T78">
         <v>300</v>
@@ -8206,7 +8325,7 @@
         <v>40</v>
       </c>
       <c r="AH78">
-        <v>27.96778136</v>
+        <v>26.023715259999999</v>
       </c>
       <c r="AI78" t="s">
         <v>39</v>
@@ -8260,16 +8379,16 @@
         <v>34</v>
       </c>
       <c r="P79">
-        <v>8.7361533659999999</v>
+        <v>7.3014753619999997</v>
       </c>
       <c r="Q79">
-        <v>9.5524778189999999</v>
+        <v>9.2402459360000009</v>
       </c>
       <c r="R79">
-        <v>1.9387705740000001</v>
+        <v>1.7857097390000001</v>
       </c>
       <c r="S79">
-        <v>1.7857097390000001</v>
+        <v>1.73472765</v>
       </c>
       <c r="T79">
         <v>300</v>
@@ -8305,7 +8424,7 @@
         <v>40</v>
       </c>
       <c r="AH79">
-        <v>30.960003560000001</v>
+        <v>27.96778136</v>
       </c>
       <c r="AI79" t="s">
         <v>39</v>
@@ -8316,19 +8435,19 @@
     </row>
     <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -8336,78 +8455,78 @@
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="H80">
-        <v>37</v>
-      </c>
       <c r="I80">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K80">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L80">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M80">
         <v>24</v>
       </c>
       <c r="N80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O80" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P80">
-        <v>57464349.689999998</v>
+        <v>8.7361533659999999</v>
       </c>
       <c r="Q80">
-        <v>44321713.420000002</v>
+        <v>9.5524778189999999</v>
       </c>
       <c r="R80">
-        <v>8929535.2019999996</v>
+        <v>1.9387705740000001</v>
+      </c>
+      <c r="S80">
+        <v>1.7857097390000001</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="U80">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="V80">
         <v>1</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="Y80" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC80" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AD80" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AH80">
-        <v>7</v>
+        <v>30.960003560000001</v>
       </c>
       <c r="AI80" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AJ80" t="s">
         <v>6</v>
@@ -8461,10 +8580,13 @@
         <v>46</v>
       </c>
       <c r="P81">
+        <v>57464349.689999998</v>
+      </c>
+      <c r="Q81">
         <v>44321713.420000002</v>
       </c>
-      <c r="Q81">
-        <v>48329302.390000001</v>
+      <c r="R81">
+        <v>8929535.2019999996</v>
       </c>
       <c r="T81">
         <v>3</v>
@@ -8500,7 +8622,7 @@
         <v>50</v>
       </c>
       <c r="AH81">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI81" t="s">
         <v>51</v>
@@ -8535,13 +8657,13 @@
         <v>37</v>
       </c>
       <c r="I82">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J82">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L82">
         <f t="shared" si="2"/>
@@ -8557,16 +8679,10 @@
         <v>46</v>
       </c>
       <c r="P82">
-        <v>31350220.629999999</v>
+        <v>44321713.420000002</v>
       </c>
       <c r="Q82">
-        <v>22175052.75</v>
-      </c>
-      <c r="R82">
-        <v>6547903.1789999995</v>
-      </c>
-      <c r="S82">
-        <v>4253290.5860000001</v>
+        <v>48329302.390000001</v>
       </c>
       <c r="T82">
         <v>3</v>
@@ -8602,7 +8718,7 @@
         <v>50</v>
       </c>
       <c r="AH82">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI82" t="s">
         <v>51</v>
@@ -8659,10 +8775,16 @@
         <v>46</v>
       </c>
       <c r="P83">
-        <v>44321713.420000002</v>
+        <v>31350220.629999999</v>
       </c>
       <c r="Q83">
-        <v>48329302.390000001</v>
+        <v>22175052.75</v>
+      </c>
+      <c r="R83">
+        <v>6547903.1789999995</v>
+      </c>
+      <c r="S83">
+        <v>4253290.5860000001</v>
       </c>
       <c r="T83">
         <v>3</v>
@@ -8698,7 +8820,7 @@
         <v>50</v>
       </c>
       <c r="AH83">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI83" t="s">
         <v>51</v>
@@ -8733,13 +8855,13 @@
         <v>37</v>
       </c>
       <c r="I84">
+        <v>16</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
         <v>23</v>
-      </c>
-      <c r="J84">
-        <v>16</v>
-      </c>
-      <c r="K84">
-        <v>30</v>
       </c>
       <c r="L84">
         <f t="shared" si="2"/>
@@ -8755,13 +8877,10 @@
         <v>46</v>
       </c>
       <c r="P84">
-        <v>10174634.029999999</v>
+        <v>44321713.420000002</v>
       </c>
       <c r="Q84">
-        <v>7847599.7039999999</v>
-      </c>
-      <c r="R84">
-        <v>1770313.531</v>
+        <v>48329302.390000001</v>
       </c>
       <c r="T84">
         <v>3</v>
@@ -8797,7 +8916,7 @@
         <v>50</v>
       </c>
       <c r="AH84">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI84" t="s">
         <v>51</v>
@@ -8854,13 +8973,13 @@
         <v>46</v>
       </c>
       <c r="P85">
-        <v>44321713.420000002</v>
+        <v>10174634.029999999</v>
       </c>
       <c r="Q85">
-        <v>48329302.390000001</v>
+        <v>7847599.7039999999</v>
       </c>
       <c r="R85">
-        <v>22155856.710000001</v>
+        <v>1770313.531</v>
       </c>
       <c r="T85">
         <v>3</v>
@@ -8896,7 +9015,7 @@
         <v>50</v>
       </c>
       <c r="AH85">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI85" t="s">
         <v>51</v>
@@ -8916,7 +9035,7 @@
         <v>43</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -8931,13 +9050,13 @@
         <v>37</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K86">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L86">
         <f t="shared" si="2"/>
@@ -8953,13 +9072,13 @@
         <v>46</v>
       </c>
       <c r="P86">
-        <v>84048177.739999995</v>
+        <v>44321713.420000002</v>
       </c>
       <c r="Q86">
-        <v>41941263.479999997</v>
-      </c>
-      <c r="S86">
-        <v>7013860.2939999998</v>
+        <v>48329302.390000001</v>
+      </c>
+      <c r="R86">
+        <v>22155856.710000001</v>
       </c>
       <c r="T86">
         <v>3</v>
@@ -8974,10 +9093,10 @@
         <v>1</v>
       </c>
       <c r="X86" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y86" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Z86">
         <v>3</v>
@@ -8995,7 +9114,7 @@
         <v>50</v>
       </c>
       <c r="AH86">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI86" t="s">
         <v>51</v>
@@ -9052,10 +9171,13 @@
         <v>46</v>
       </c>
       <c r="P87">
-        <v>154411359</v>
+        <v>84048177.739999995</v>
       </c>
       <c r="Q87">
-        <v>168428311.30000001</v>
+        <v>41941263.479999997</v>
+      </c>
+      <c r="S87">
+        <v>7013860.2939999998</v>
       </c>
       <c r="T87">
         <v>3</v>
@@ -9091,7 +9213,7 @@
         <v>50</v>
       </c>
       <c r="AH87">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI87" t="s">
         <v>51</v>
@@ -9126,13 +9248,13 @@
         <v>37</v>
       </c>
       <c r="I88">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J88">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L88">
         <f t="shared" si="2"/>
@@ -9148,16 +9270,10 @@
         <v>46</v>
       </c>
       <c r="P88">
-        <v>6763767.6349999998</v>
+        <v>154411359</v>
       </c>
       <c r="Q88">
-        <v>2600724.4440000001</v>
-      </c>
-      <c r="R88">
-        <v>1417884.0249999999</v>
-      </c>
-      <c r="S88">
-        <v>545188.10270000005</v>
+        <v>168428311.30000001</v>
       </c>
       <c r="T88">
         <v>3</v>
@@ -9193,7 +9309,7 @@
         <v>50</v>
       </c>
       <c r="AH88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI88" t="s">
         <v>51</v>
@@ -9250,10 +9366,16 @@
         <v>46</v>
       </c>
       <c r="P89">
-        <v>168428311.30000001</v>
+        <v>6763767.6349999998</v>
       </c>
       <c r="Q89">
-        <v>168428311.30000001</v>
+        <v>2600724.4440000001</v>
+      </c>
+      <c r="R89">
+        <v>1417884.0249999999</v>
+      </c>
+      <c r="S89">
+        <v>545188.10270000005</v>
       </c>
       <c r="T89">
         <v>3</v>
@@ -9289,7 +9411,7 @@
         <v>50</v>
       </c>
       <c r="AH89">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI89" t="s">
         <v>51</v>
@@ -9324,13 +9446,13 @@
         <v>37</v>
       </c>
       <c r="I90">
+        <v>16</v>
+      </c>
+      <c r="J90">
+        <v>9</v>
+      </c>
+      <c r="K90">
         <v>23</v>
-      </c>
-      <c r="J90">
-        <v>16</v>
-      </c>
-      <c r="K90">
-        <v>30</v>
       </c>
       <c r="L90">
         <f t="shared" si="2"/>
@@ -9346,16 +9468,10 @@
         <v>46</v>
       </c>
       <c r="P90">
-        <v>457485.52620000002</v>
+        <v>168428311.30000001</v>
       </c>
       <c r="Q90">
-        <v>80474.887340000001</v>
-      </c>
-      <c r="R90">
-        <v>346317.59230000002</v>
-      </c>
-      <c r="S90">
-        <v>43881.294320000001</v>
+        <v>168428311.30000001</v>
       </c>
       <c r="T90">
         <v>3</v>
@@ -9391,7 +9507,7 @@
         <v>50</v>
       </c>
       <c r="AH90">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI90" t="s">
         <v>51</v>
@@ -9448,10 +9564,16 @@
         <v>46</v>
       </c>
       <c r="P91">
-        <v>168428311.30000001</v>
+        <v>457485.52620000002</v>
       </c>
       <c r="Q91">
-        <v>168428311.30000001</v>
+        <v>80474.887340000001</v>
+      </c>
+      <c r="R91">
+        <v>346317.59230000002</v>
+      </c>
+      <c r="S91">
+        <v>43881.294320000001</v>
       </c>
       <c r="T91">
         <v>3</v>
@@ -9487,7 +9609,7 @@
         <v>50</v>
       </c>
       <c r="AH91">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI91" t="s">
         <v>51</v>
@@ -9522,13 +9644,13 @@
         <v>37</v>
       </c>
       <c r="I92">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J92">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K92">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L92">
         <f t="shared" si="2"/>
@@ -9592,7 +9714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -9603,7 +9725,7 @@
         <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -9618,13 +9740,13 @@
         <v>37</v>
       </c>
       <c r="I93">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K93">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L93">
         <f t="shared" si="2"/>
@@ -9640,13 +9762,10 @@
         <v>46</v>
       </c>
       <c r="P93">
-        <v>959574841.70000005</v>
+        <v>168428311.30000001</v>
       </c>
       <c r="Q93">
-        <v>78068011.650000006</v>
-      </c>
-      <c r="R93">
-        <v>153940775.5</v>
+        <v>168428311.30000001</v>
       </c>
       <c r="T93">
         <v>3</v>
@@ -9661,10 +9780,10 @@
         <v>1</v>
       </c>
       <c r="X93" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Y93" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="Z93">
         <v>3</v>
@@ -9679,10 +9798,10 @@
         <v>49</v>
       </c>
       <c r="AD93" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AH93">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI93" t="s">
         <v>51</v>
@@ -9691,7 +9810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -9739,13 +9858,13 @@
         <v>46</v>
       </c>
       <c r="P94">
-        <v>172408685.19999999</v>
+        <v>959574841.70000005</v>
       </c>
       <c r="Q94">
-        <v>172408685.19999999</v>
+        <v>78068011.650000006</v>
       </c>
       <c r="R94">
-        <v>29546619</v>
+        <v>153940775.5</v>
       </c>
       <c r="T94">
         <v>3</v>
@@ -9781,7 +9900,7 @@
         <v>56</v>
       </c>
       <c r="AH94">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI94" t="s">
         <v>51</v>
@@ -9816,13 +9935,13 @@
         <v>37</v>
       </c>
       <c r="I95">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J95">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L95">
         <f t="shared" si="2"/>
@@ -9838,16 +9957,13 @@
         <v>46</v>
       </c>
       <c r="P95">
-        <v>689778537.89999998</v>
+        <v>172408685.19999999</v>
       </c>
       <c r="Q95">
-        <v>736857507.20000005</v>
+        <v>172408685.19999999</v>
       </c>
       <c r="R95">
-        <v>184292593.5</v>
-      </c>
-      <c r="S95">
-        <v>146906927.19999999</v>
+        <v>29546619</v>
       </c>
       <c r="T95">
         <v>3</v>
@@ -9883,7 +9999,7 @@
         <v>56</v>
       </c>
       <c r="AH95">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="AI95" t="s">
         <v>51</v>
@@ -9940,10 +10056,16 @@
         <v>46</v>
       </c>
       <c r="P96">
-        <v>172408685.19999999</v>
+        <v>689778537.89999998</v>
       </c>
       <c r="Q96">
-        <v>172408685.19999999</v>
+        <v>736857507.20000005</v>
+      </c>
+      <c r="R96">
+        <v>184292593.5</v>
+      </c>
+      <c r="S96">
+        <v>146906927.19999999</v>
       </c>
       <c r="T96">
         <v>3</v>
@@ -9979,7 +10101,7 @@
         <v>56</v>
       </c>
       <c r="AH96">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AI96" t="s">
         <v>51</v>
@@ -10014,16 +10136,16 @@
         <v>37</v>
       </c>
       <c r="I97">
+        <v>16</v>
+      </c>
+      <c r="J97">
+        <v>9</v>
+      </c>
+      <c r="K97">
         <v>23</v>
       </c>
-      <c r="J97">
-        <v>16</v>
-      </c>
-      <c r="K97">
-        <v>30</v>
-      </c>
       <c r="L97">
-        <f t="shared" ref="L97:L108" si="3">K97-J97</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="M97">
@@ -10036,16 +10158,10 @@
         <v>46</v>
       </c>
       <c r="P97">
-        <v>89088323.959999993</v>
+        <v>172408685.19999999</v>
       </c>
       <c r="Q97">
-        <v>101664296.3</v>
-      </c>
-      <c r="R97">
-        <v>29946906.91</v>
-      </c>
-      <c r="S97">
-        <v>13463603.109999999</v>
+        <v>172408685.19999999</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -10081,7 +10197,7 @@
         <v>56</v>
       </c>
       <c r="AH97">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI97" t="s">
         <v>51</v>
@@ -10125,7 +10241,7 @@
         <v>30</v>
       </c>
       <c r="L98">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L98:L109" si="3">K98-J98</f>
         <v>14</v>
       </c>
       <c r="M98">
@@ -10138,10 +10254,16 @@
         <v>46</v>
       </c>
       <c r="P98">
-        <v>184175973.80000001</v>
+        <v>89088323.959999993</v>
       </c>
       <c r="Q98">
-        <v>161393226.80000001</v>
+        <v>101664296.3</v>
+      </c>
+      <c r="R98">
+        <v>29946906.91</v>
+      </c>
+      <c r="S98">
+        <v>13463603.109999999</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -10177,7 +10299,7 @@
         <v>56</v>
       </c>
       <c r="AH98">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI98" t="s">
         <v>51</v>
@@ -10212,13 +10334,13 @@
         <v>37</v>
       </c>
       <c r="I99">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J99">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K99">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
@@ -10234,16 +10356,10 @@
         <v>46</v>
       </c>
       <c r="P99">
-        <v>35349811.049999997</v>
+        <v>184175973.80000001</v>
       </c>
       <c r="Q99">
-        <v>4000834.0490000001</v>
-      </c>
-      <c r="R99">
-        <v>43340157.18</v>
-      </c>
-      <c r="S99">
-        <v>529838.33759999997</v>
+        <v>161393226.80000001</v>
       </c>
       <c r="T99">
         <v>3</v>
@@ -10279,7 +10395,7 @@
         <v>56</v>
       </c>
       <c r="AH99">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI99" t="s">
         <v>51</v>
@@ -10336,10 +10452,16 @@
         <v>46</v>
       </c>
       <c r="P100">
-        <v>184175973.80000001</v>
+        <v>35349811.049999997</v>
       </c>
       <c r="Q100">
-        <v>172408685.19999999</v>
+        <v>4000834.0490000001</v>
+      </c>
+      <c r="R100">
+        <v>43340157.18</v>
+      </c>
+      <c r="S100">
+        <v>529838.33759999997</v>
       </c>
       <c r="T100">
         <v>3</v>
@@ -10375,7 +10497,7 @@
         <v>56</v>
       </c>
       <c r="AH100">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI100" t="s">
         <v>51</v>
@@ -10395,7 +10517,7 @@
         <v>43</v>
       </c>
       <c r="D101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -10410,13 +10532,13 @@
         <v>37</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K101">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
@@ -10432,16 +10554,10 @@
         <v>46</v>
       </c>
       <c r="P101">
-        <v>68326073.870000005</v>
+        <v>184175973.80000001</v>
       </c>
       <c r="Q101">
-        <v>90133703.900000006</v>
-      </c>
-      <c r="R101">
-        <v>22489985.98</v>
-      </c>
-      <c r="S101">
-        <v>18860453.030000001</v>
+        <v>172408685.19999999</v>
       </c>
       <c r="T101">
         <v>3</v>
@@ -10456,10 +10572,10 @@
         <v>1</v>
       </c>
       <c r="X101" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Y101" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Z101">
         <v>3</v>
@@ -10476,9 +10592,8 @@
       <c r="AD101" t="s">
         <v>56</v>
       </c>
-      <c r="AG101" s="1"/>
-      <c r="AH101" s="1">
-        <v>21.026490066225101</v>
+      <c r="AH101">
+        <v>0</v>
       </c>
       <c r="AI101" t="s">
         <v>51</v>
@@ -10535,10 +10650,16 @@
         <v>46</v>
       </c>
       <c r="P102">
-        <v>127427498.59999999</v>
+        <v>68326073.870000005</v>
       </c>
       <c r="Q102">
-        <v>127427498.59999999</v>
+        <v>90133703.900000006</v>
+      </c>
+      <c r="R102">
+        <v>22489985.98</v>
+      </c>
+      <c r="S102">
+        <v>18860453.030000001</v>
       </c>
       <c r="T102">
         <v>3</v>
@@ -10575,7 +10696,7 @@
       </c>
       <c r="AG102" s="1"/>
       <c r="AH102" s="1">
-        <v>0</v>
+        <v>21.026490066225101</v>
       </c>
       <c r="AI102" t="s">
         <v>51</v>
@@ -10586,10 +10707,10 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="s">
         <v>43</v>
@@ -10610,13 +10731,13 @@
         <v>37</v>
       </c>
       <c r="I103">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J103">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K103">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
@@ -10632,13 +10753,10 @@
         <v>46</v>
       </c>
       <c r="P103">
-        <v>2335721469</v>
+        <v>127427498.59999999</v>
       </c>
       <c r="Q103">
-        <v>2179444754</v>
-      </c>
-      <c r="R103">
-        <v>488749082.19999999</v>
+        <v>127427498.59999999</v>
       </c>
       <c r="T103">
         <v>3</v>
@@ -10675,7 +10793,7 @@
       </c>
       <c r="AG103" s="1"/>
       <c r="AH103" s="1">
-        <v>21.026490066225101</v>
+        <v>0</v>
       </c>
       <c r="AI103" t="s">
         <v>51</v>
@@ -10732,10 +10850,13 @@
         <v>46</v>
       </c>
       <c r="P104">
-        <v>127427498.59999999</v>
+        <v>2335721469</v>
       </c>
       <c r="Q104">
-        <v>127427498.59999999</v>
+        <v>2179444754</v>
+      </c>
+      <c r="R104">
+        <v>488749082.19999999</v>
       </c>
       <c r="T104">
         <v>3</v>
@@ -10772,7 +10893,7 @@
       </c>
       <c r="AG104" s="1"/>
       <c r="AH104" s="1">
-        <v>0</v>
+        <v>21.026490066225101</v>
       </c>
       <c r="AI104" t="s">
         <v>51</v>
@@ -10807,13 +10928,13 @@
         <v>37</v>
       </c>
       <c r="I105">
+        <v>16</v>
+      </c>
+      <c r="J105">
+        <v>9</v>
+      </c>
+      <c r="K105">
         <v>23</v>
-      </c>
-      <c r="J105">
-        <v>16</v>
-      </c>
-      <c r="K105">
-        <v>30</v>
       </c>
       <c r="L105">
         <f t="shared" si="3"/>
@@ -10829,13 +10950,10 @@
         <v>46</v>
       </c>
       <c r="P105">
-        <v>1489129032</v>
+        <v>127427498.59999999</v>
       </c>
       <c r="Q105">
-        <v>443217134.19999999</v>
-      </c>
-      <c r="S105">
-        <v>179015636.40000001</v>
+        <v>127427498.59999999</v>
       </c>
       <c r="T105">
         <v>3</v>
@@ -10872,7 +10990,7 @@
       </c>
       <c r="AG105" s="1"/>
       <c r="AH105" s="1">
-        <v>21.026490066225101</v>
+        <v>0</v>
       </c>
       <c r="AI105" t="s">
         <v>51</v>
@@ -10929,10 +11047,13 @@
         <v>46</v>
       </c>
       <c r="P106">
-        <v>127427498.59999999</v>
+        <v>1489129032</v>
       </c>
       <c r="Q106">
-        <v>118901674.2</v>
+        <v>443217134.19999999</v>
+      </c>
+      <c r="S106">
+        <v>179015636.40000001</v>
       </c>
       <c r="T106">
         <v>3</v>
@@ -10969,7 +11090,7 @@
       </c>
       <c r="AG106" s="1"/>
       <c r="AH106" s="1">
-        <v>0</v>
+        <v>21.026490066225101</v>
       </c>
       <c r="AI106" t="s">
         <v>51</v>
@@ -11004,13 +11125,13 @@
         <v>37</v>
       </c>
       <c r="I107">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J107">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K107">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L107">
         <f t="shared" si="3"/>
@@ -11026,13 +11147,10 @@
         <v>46</v>
       </c>
       <c r="P107">
-        <v>1652133406</v>
+        <v>127427498.59999999</v>
       </c>
       <c r="Q107">
-        <v>335981828.60000002</v>
-      </c>
-      <c r="S107">
-        <v>79435423.939999998</v>
+        <v>118901674.2</v>
       </c>
       <c r="T107">
         <v>3</v>
@@ -11069,7 +11187,7 @@
       </c>
       <c r="AG107" s="1"/>
       <c r="AH107" s="1">
-        <v>21.026490066225101</v>
+        <v>0</v>
       </c>
       <c r="AI107" t="s">
         <v>51</v>
@@ -11078,7 +11196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2</v>
       </c>
@@ -11126,10 +11244,13 @@
         <v>46</v>
       </c>
       <c r="P108">
-        <v>127427498.59999999</v>
+        <v>1652133406</v>
       </c>
       <c r="Q108">
-        <v>118901674.2</v>
+        <v>335981828.60000002</v>
+      </c>
+      <c r="S108">
+        <v>79435423.939999998</v>
       </c>
       <c r="T108">
         <v>3</v>
@@ -11166,7 +11287,7 @@
       </c>
       <c r="AG108" s="1"/>
       <c r="AH108" s="1">
-        <v>0</v>
+        <v>21.026490066225101</v>
       </c>
       <c r="AI108" t="s">
         <v>51</v>
@@ -11175,97 +11296,101 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>1</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E109" s="2">
-        <v>1</v>
-      </c>
-      <c r="F109" s="2">
-        <v>1</v>
-      </c>
-      <c r="G109" s="2">
-        <v>1</v>
-      </c>
-      <c r="I109" s="2">
-        <v>10</v>
-      </c>
-      <c r="J109" s="2">
-        <v>10</v>
-      </c>
-      <c r="K109" s="2">
-        <v>25</v>
-      </c>
-      <c r="L109" s="2">
-        <f>K109-J109</f>
-        <v>15</v>
-      </c>
-      <c r="M109" s="2">
-        <v>24</v>
-      </c>
-      <c r="N109" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P109" s="2">
-        <v>0.81037276999999996</v>
-      </c>
-      <c r="Q109" s="2">
-        <v>87.520259300000006</v>
-      </c>
-      <c r="R109" s="2">
-        <v>1.6207455399999999</v>
-      </c>
-      <c r="S109" s="2">
-        <v>7.3743922199999998</v>
-      </c>
-      <c r="T109" s="2">
-        <v>120</v>
-      </c>
-      <c r="U109" s="2">
-        <v>120</v>
-      </c>
-      <c r="V109" s="2">
-        <v>1</v>
-      </c>
-      <c r="W109" s="2">
-        <v>1</v>
-      </c>
-      <c r="X109" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y109" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z109" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB109" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD109" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ109" s="2" t="s">
-        <v>16</v>
+    <row r="109" spans="1:36" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>37</v>
+      </c>
+      <c r="I109">
+        <v>33</v>
+      </c>
+      <c r="J109">
+        <v>26</v>
+      </c>
+      <c r="K109">
+        <v>40</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="M109">
+        <v>24</v>
+      </c>
+      <c r="N109" t="s">
+        <v>45</v>
+      </c>
+      <c r="O109" t="s">
+        <v>46</v>
+      </c>
+      <c r="P109">
+        <v>127427498.59999999</v>
+      </c>
+      <c r="Q109">
+        <v>118901674.2</v>
+      </c>
+      <c r="T109">
+        <v>3</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z109">
+        <v>3</v>
+      </c>
+      <c r="AA109">
+        <v>1</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD109" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ109" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -11276,80 +11401,86 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" s="2">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="J110" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K110" s="2">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L110" s="2">
         <f>K110-J110</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M110" s="2">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P110" s="2">
-        <v>-2.3909825023451015E-2</v>
+        <v>0.81037276999999996</v>
       </c>
       <c r="Q110" s="2">
-        <v>-0.84509945900000005</v>
+        <v>87.520259300000006</v>
       </c>
       <c r="R110" s="2">
-        <v>0.11820634261581375</v>
+        <v>1.6207455399999999</v>
       </c>
       <c r="S110" s="2">
-        <v>0.119565036</v>
+        <v>7.3743922199999998</v>
+      </c>
+      <c r="T110" s="2">
+        <v>120</v>
+      </c>
+      <c r="U110" s="2">
+        <v>120</v>
       </c>
       <c r="V110" s="2">
         <v>1</v>
       </c>
       <c r="W110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X110" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Y110" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Z110" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA110" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC110" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AD110" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="AJ110" s="2" t="s">
         <v>16</v>
@@ -11360,7 +11491,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>66</v>
@@ -11403,13 +11534,13 @@
         <v>-2.3909825023451015E-2</v>
       </c>
       <c r="Q111" s="2">
-        <v>2.4135967100000002</v>
+        <v>-0.84509945900000005</v>
       </c>
       <c r="R111" s="2">
         <v>0.11820634261581375</v>
       </c>
       <c r="S111" s="2">
-        <v>0.28260826700000002</v>
+        <v>0.119565036</v>
       </c>
       <c r="V111" s="2">
         <v>1</v>
@@ -11436,7 +11567,7 @@
         <v>71</v>
       </c>
       <c r="AD111" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ111" s="2" t="s">
         <v>16</v>
@@ -11444,13 +11575,13 @@
     </row>
     <row r="112" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B112" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>13</v>
@@ -11459,94 +11590,91 @@
         <v>0</v>
       </c>
       <c r="F112" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="I112" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J112" s="2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K112" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="L112" s="2">
         <f>K112-J112</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M112" s="2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="P112" s="2">
-        <v>2089.0710382513648</v>
+        <v>-2.3909825023451015E-2</v>
       </c>
       <c r="Q112" s="2">
-        <v>2006.010929</v>
+        <v>2.4135967100000002</v>
       </c>
       <c r="R112" s="2">
-        <v>74.478850435137048</v>
+        <v>0.11820634261581375</v>
       </c>
       <c r="S112" s="2">
-        <v>74.478850440000002</v>
-      </c>
-      <c r="T112" s="2">
-        <v>480</v>
-      </c>
-      <c r="U112" s="2">
-        <v>480</v>
+        <v>0.28260826700000002</v>
       </c>
       <c r="V112" s="2">
         <v>1</v>
       </c>
       <c r="W112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X112" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Y112" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Z112" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA112" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB112" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AC112" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD112" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="AJ112" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:36" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B113" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
@@ -11554,72 +11682,69 @@
       <c r="G113" s="2">
         <v>1</v>
       </c>
+      <c r="H113" s="2">
+        <v>20.5</v>
+      </c>
       <c r="I113" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J113" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K113" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L113" s="2">
         <f>K113-J113</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M113" s="2">
         <v>24</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P113" s="2">
-        <v>86.5139949</v>
+        <v>2089.0710382513648</v>
       </c>
       <c r="Q113" s="2">
-        <v>83.460559799999999</v>
+        <v>2006.010929</v>
       </c>
       <c r="R113" s="2">
-        <v>3.1170483449999997</v>
+        <v>74.478850435137048</v>
       </c>
       <c r="S113" s="2">
-        <v>6.361323155</v>
+        <v>74.478850440000002</v>
       </c>
       <c r="T113" s="2">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="U113" s="2">
-        <v>12</v>
+        <v>480</v>
       </c>
       <c r="V113" s="2">
         <v>1</v>
       </c>
       <c r="W113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X113" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="Y113" s="2" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="Z113" s="2">
         <v>1</v>
       </c>
       <c r="AA113" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB113" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD113" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AJ113" s="2" t="s">
         <v>16</v>
@@ -11670,16 +11795,16 @@
         <v>61</v>
       </c>
       <c r="P114" s="2">
-        <v>21.628498699999994</v>
+        <v>86.5139949</v>
       </c>
       <c r="Q114" s="2">
-        <v>80.91603053</v>
+        <v>83.460559799999999</v>
       </c>
       <c r="R114" s="2">
-        <v>6.4885496200000006</v>
+        <v>3.1170483449999997</v>
       </c>
       <c r="S114" s="2">
-        <v>6.9974554710000003</v>
+        <v>6.361323155</v>
       </c>
       <c r="T114" s="2">
         <v>12</v>
@@ -11712,9 +11837,102 @@
         <v>14</v>
       </c>
       <c r="AD114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ114" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:36" s="2" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="2">
+        <v>18</v>
+      </c>
+      <c r="J115" s="2">
+        <v>18</v>
+      </c>
+      <c r="K115" s="2">
+        <v>28</v>
+      </c>
+      <c r="L115" s="2">
+        <f>K115-J115</f>
+        <v>10</v>
+      </c>
+      <c r="M115" s="2">
+        <v>24</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P115" s="2">
+        <v>21.628498699999994</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>80.91603053</v>
+      </c>
+      <c r="R115" s="2">
+        <v>6.4885496200000006</v>
+      </c>
+      <c r="S115" s="2">
+        <v>6.9974554710000003</v>
+      </c>
+      <c r="T115" s="2">
+        <v>12</v>
+      </c>
+      <c r="U115" s="2">
+        <v>12</v>
+      </c>
+      <c r="V115" s="2">
+        <v>1</v>
+      </c>
+      <c r="W115" s="2">
+        <v>0</v>
+      </c>
+      <c r="X115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y115" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z115" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC115" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD115" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AJ114" s="2" t="s">
+      <c r="AJ115" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11727,7 +11945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763313DD-8534-5C4C-8D9C-F3CA4E15A34E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
